--- a/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="78">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Anh lâm</t>
+  </si>
+  <si>
+    <t>Anh Tùng</t>
   </si>
 </sst>
 </file>
@@ -541,19 +544,43 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,35 +601,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,14 +921,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -938,13 +941,13 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -958,168 +961,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="43"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="42" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="39" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40" t="s">
+      <c r="U7" s="32"/>
+      <c r="V7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1174,8 +1177,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -1896,51 +1899,51 @@
       <c r="C27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="35">
         <f>SUM(D9:D26)-SUM(E9:E26)</f>
         <v>858</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27">
+      <c r="E27" s="35"/>
+      <c r="F27" s="35">
         <f>SUM(F9:F26)-SUM(G9:G26)</f>
         <v>74</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27">
+      <c r="G27" s="35"/>
+      <c r="H27" s="35">
         <f>SUM(H9:H26)-SUM(I9:I26)</f>
         <v>15</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27">
+      <c r="I27" s="35"/>
+      <c r="J27" s="35">
         <f>SUM(J9:J26)-SUM(K9:K26)</f>
         <v>16</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27">
+      <c r="K27" s="35"/>
+      <c r="L27" s="35">
         <f>SUM(L9:L26)-SUM(M9:M26)</f>
         <v>52.5</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27">
+      <c r="M27" s="35"/>
+      <c r="N27" s="35">
         <f>SUM(N9:N26)-SUM(O9:O26)</f>
         <v>4408</v>
       </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27">
+      <c r="O27" s="35"/>
+      <c r="P27" s="35">
         <f>SUM(P9:P26)-SUM(Q9:Q26)</f>
         <v>4100</v>
       </c>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27">
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35">
         <f>SUM(R9:R26)-SUM(S9:S26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27">
+      <c r="S27" s="35"/>
+      <c r="T27" s="35">
         <f>SUM(T9:T26)-SUM(U9:U26)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="27"/>
+      <c r="U27" s="35"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
@@ -1950,70 +1953,70 @@
       <c r="C28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="36">
         <f>D27/6</f>
         <v>143</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36">
         <f>L27/16</f>
         <v>3.28125</v>
       </c>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31">
+      <c r="M28" s="36"/>
+      <c r="N28" s="36">
         <f>N27/150</f>
         <v>29.386666666666667</v>
       </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="28">
+      <c r="O28" s="36"/>
+      <c r="P28" s="46">
         <f>P27/200</f>
         <v>20.5</v>
       </c>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="31">
+      <c r="Q28" s="47"/>
+      <c r="R28" s="36">
         <f>R27/50</f>
         <v>0</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31">
+      <c r="S28" s="36"/>
+      <c r="T28" s="36">
         <f>T27/8</f>
         <v>0</v>
       </c>
-      <c r="U28" s="31"/>
-      <c r="V28" s="32">
+      <c r="U28" s="36"/>
+      <c r="V28" s="40">
         <f>SUM(D28:S28)</f>
         <v>196.16791666666666</v>
       </c>
-      <c r="W28" s="33"/>
+      <c r="W28" s="41"/>
     </row>
     <row r="29" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="21">
@@ -2026,57 +2029,90 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
-      <c r="V30" s="36">
+      <c r="V30" s="44">
         <f>W29-V29</f>
         <v>9523.5</v>
       </c>
-      <c r="W30" s="37"/>
+      <c r="W30" s="45"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A29:S29"/>
+    <mergeCell ref="A30:S30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P31:Q31"/>
@@ -2093,39 +2129,6 @@
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="A29:S29"/>
-    <mergeCell ref="A30:S30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="N27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2166,11 +2169,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2186,11 +2189,11 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2206,168 +2209,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="43"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="42" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="39" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40" t="s">
+      <c r="U7" s="32"/>
+      <c r="V7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2422,8 +2425,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -2976,51 +2979,51 @@
       <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="35">
         <f>SUM(D9:D22)-SUM(E9:E22)</f>
         <v>752</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35">
         <f>SUM(F9:F22)-SUM(G9:G22)</f>
         <v>68</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27">
+      <c r="G23" s="35"/>
+      <c r="H23" s="35">
         <f>SUM(H9:H22)-SUM(I9:I22)</f>
         <v>15</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27">
+      <c r="I23" s="35"/>
+      <c r="J23" s="35">
         <f>SUM(J9:J22)-SUM(K9:K22)</f>
         <v>16</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27">
+      <c r="K23" s="35"/>
+      <c r="L23" s="35">
         <f>SUM(L9:L22)-SUM(M9:M22)</f>
         <v>51</v>
       </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27">
+      <c r="M23" s="35"/>
+      <c r="N23" s="35">
         <f>SUM(N9:N22)-SUM(O9:O22)</f>
         <v>4405</v>
       </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27">
+      <c r="O23" s="35"/>
+      <c r="P23" s="35">
         <f>SUM(P9:P22)-SUM(Q9:Q22)</f>
         <v>4070</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27">
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35">
         <f>SUM(R9:R22)-SUM(S9:S22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27">
+      <c r="S23" s="35"/>
+      <c r="T23" s="35">
         <f>SUM(T9:T22)-SUM(U9:U22)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="27"/>
+      <c r="U23" s="35"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
     </row>
@@ -3030,70 +3033,70 @@
       <c r="C24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="36">
         <f>D23/6</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36">
         <f>L23/16</f>
         <v>3.1875</v>
       </c>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31">
+      <c r="M24" s="36"/>
+      <c r="N24" s="36">
         <f>N23/150</f>
         <v>29.366666666666667</v>
       </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="28">
+      <c r="O24" s="36"/>
+      <c r="P24" s="46">
         <f>P23/200</f>
         <v>20.350000000000001</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="31">
+      <c r="Q24" s="47"/>
+      <c r="R24" s="36">
         <f>R23/50</f>
         <v>0</v>
       </c>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31">
+      <c r="S24" s="36"/>
+      <c r="T24" s="36">
         <f>T23/8</f>
         <v>0</v>
       </c>
-      <c r="U24" s="31"/>
-      <c r="V24" s="32">
+      <c r="U24" s="36"/>
+      <c r="V24" s="40">
         <f>SUM(D24:S24)</f>
         <v>178.23749999999998</v>
       </c>
-      <c r="W24" s="33"/>
+      <c r="W24" s="41"/>
     </row>
     <row r="25" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="21">
@@ -3106,82 +3109,65 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
-      <c r="V26" s="36">
+      <c r="V26" s="44">
         <f>W25-V25</f>
         <v>9377</v>
       </c>
-      <c r="W26" s="37"/>
+      <c r="W26" s="45"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A26:S26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:V8"/>
@@ -3198,14 +3184,31 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A26:S26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3245,11 +3248,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3265,11 +3268,11 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -3285,168 +3288,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="43"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="42" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="39" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40" t="s">
+      <c r="U7" s="32"/>
+      <c r="V7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3501,8 +3504,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -4189,51 +4192,51 @@
       <c r="C26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="35">
         <f>SUM(D9:D25)-SUM(E9:E25)</f>
         <v>571</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35">
         <f>SUM(F9:F25)-SUM(G9:G25)</f>
         <v>47</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35">
         <f>SUM(H9:H25)-SUM(I9:I25)</f>
         <v>15</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27">
+      <c r="I26" s="35"/>
+      <c r="J26" s="35">
         <f>SUM(J9:J25)-SUM(K9:K25)</f>
         <v>14</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27">
+      <c r="K26" s="35"/>
+      <c r="L26" s="35">
         <f>SUM(L9:L25)-SUM(M9:M25)</f>
         <v>46</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27">
+      <c r="M26" s="35"/>
+      <c r="N26" s="35">
         <f>SUM(N9:N25)-SUM(O9:O25)</f>
         <v>4330</v>
       </c>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27">
+      <c r="O26" s="35"/>
+      <c r="P26" s="35">
         <f>SUM(P9:P25)-SUM(Q9:Q25)</f>
         <v>3850</v>
       </c>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27">
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35">
         <f>SUM(R9:R25)-SUM(S9:S25)</f>
         <v>1</v>
       </c>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27">
+      <c r="S26" s="35"/>
+      <c r="T26" s="35">
         <f>SUM(T9:T25)-SUM(U9:U25)</f>
         <v>87</v>
       </c>
-      <c r="U26" s="27"/>
+      <c r="U26" s="35"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
@@ -4243,70 +4246,70 @@
       <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="36">
         <f>D26/6</f>
         <v>95.166666666666671</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31">
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36">
         <f>L26/16</f>
         <v>2.875</v>
       </c>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31">
+      <c r="M27" s="36"/>
+      <c r="N27" s="36">
         <f>N26/150</f>
         <v>28.866666666666667</v>
       </c>
-      <c r="O27" s="31"/>
-      <c r="P27" s="28">
+      <c r="O27" s="36"/>
+      <c r="P27" s="46">
         <f>P26/200</f>
         <v>19.25</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="31">
+      <c r="Q27" s="47"/>
+      <c r="R27" s="36">
         <f>R26/50</f>
         <v>0.02</v>
       </c>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31">
+      <c r="S27" s="36"/>
+      <c r="T27" s="36">
         <f>T26/8</f>
         <v>10.875</v>
       </c>
-      <c r="U27" s="31"/>
-      <c r="V27" s="32">
+      <c r="U27" s="36"/>
+      <c r="V27" s="40">
         <f>SUM(D27:S27)</f>
         <v>146.17833333333334</v>
       </c>
-      <c r="W27" s="33"/>
+      <c r="W27" s="41"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="21">
@@ -4319,82 +4322,65 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
-      <c r="V29" s="36">
+      <c r="V29" s="44">
         <f>W28-V28</f>
         <v>8961</v>
       </c>
-      <c r="W29" s="37"/>
+      <c r="W29" s="45"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="A28:S28"/>
-    <mergeCell ref="A29:S29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:V8"/>
@@ -4411,14 +4397,31 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="A29:S29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4429,8 +4432,8 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36:G36"/>
+      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4459,11 +4462,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4479,11 +4482,11 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4499,168 +4502,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="43"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="42" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="39" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40" t="s">
+      <c r="U7" s="32"/>
+      <c r="V7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -4715,8 +4718,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -5302,7 +5305,9 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>100</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15">
         <v>1</v>
@@ -5413,12 +5418,18 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="16">
+        <v>44087</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -5443,7 +5454,9 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -5529,51 +5542,51 @@
       <c r="C32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="35">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>558</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27">
+      <c r="E32" s="35"/>
+      <c r="F32" s="35">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
-        <v>43</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27">
+        <v>41</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
         <v>15</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27">
+      <c r="I32" s="35"/>
+      <c r="J32" s="35">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
         <v>14</v>
       </c>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27">
+      <c r="K32" s="35"/>
+      <c r="L32" s="35">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>45</v>
       </c>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27">
+      <c r="M32" s="35"/>
+      <c r="N32" s="35">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
         <v>4300</v>
       </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27">
+      <c r="O32" s="35"/>
+      <c r="P32" s="35">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
-        <v>3850</v>
-      </c>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27">
+        <v>3750</v>
+      </c>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
         <v>84</v>
       </c>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27">
+      <c r="S32" s="35"/>
+      <c r="T32" s="35">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>76</v>
       </c>
-      <c r="U32" s="27"/>
+      <c r="U32" s="35"/>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
     </row>
@@ -5583,70 +5596,70 @@
       <c r="C33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="36">
         <f>D32/6</f>
         <v>93</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31">
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36">
         <f>L32/16</f>
         <v>2.8125</v>
       </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31">
+      <c r="M33" s="36"/>
+      <c r="N33" s="36">
         <f>N32/150</f>
         <v>28.666666666666668</v>
       </c>
-      <c r="O33" s="31"/>
-      <c r="P33" s="28">
+      <c r="O33" s="36"/>
+      <c r="P33" s="46">
         <f>P32/200</f>
-        <v>19.25</v>
-      </c>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="31">
+        <v>18.75</v>
+      </c>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="36">
         <f>R32/50</f>
         <v>1.68</v>
       </c>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31">
+      <c r="S33" s="36"/>
+      <c r="T33" s="36">
         <f>T32/8</f>
         <v>9.5</v>
       </c>
-      <c r="U33" s="31"/>
-      <c r="V33" s="32">
+      <c r="U33" s="36"/>
+      <c r="V33" s="40">
         <f>SUM(D33:S33)</f>
-        <v>145.40916666666669</v>
-      </c>
-      <c r="W33" s="33"/>
+        <v>144.90916666666669</v>
+      </c>
+      <c r="W33" s="41"/>
     </row>
     <row r="34" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
       <c r="V34" s="21">
@@ -5659,82 +5672,65 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
       <c r="T35" s="22"/>
       <c r="U35" s="22"/>
-      <c r="V35" s="36">
+      <c r="V35" s="44">
         <f>W34-V34</f>
         <v>8998</v>
       </c>
-      <c r="W35" s="37"/>
+      <c r="W35" s="45"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="A34:S34"/>
-    <mergeCell ref="A35:S35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:V8"/>
@@ -5751,14 +5747,31 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="A34:S34"/>
+    <mergeCell ref="A35:S35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>Anh Tùng</t>
+  </si>
+  <si>
+    <t>16 cờ, 12 cọc, 11 cục</t>
+  </si>
+  <si>
+    <t>Chị Phương</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,42 +559,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -601,10 +571,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -888,11 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28:E28"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,168 +970,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="31"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="41"/>
+      <c r="P7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="32" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32" t="s">
+      <c r="S7" s="41"/>
+      <c r="T7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="37" t="s">
+      <c r="U7" s="41"/>
+      <c r="V7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +1186,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -1899,51 +1908,51 @@
       <c r="C27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="40">
         <f>SUM(D9:D26)-SUM(E9:E26)</f>
         <v>858</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35">
+      <c r="E27" s="40"/>
+      <c r="F27" s="40">
         <f>SUM(F9:F26)-SUM(G9:G26)</f>
         <v>74</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35">
+      <c r="G27" s="40"/>
+      <c r="H27" s="40">
         <f>SUM(H9:H26)-SUM(I9:I26)</f>
         <v>15</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35">
+      <c r="I27" s="40"/>
+      <c r="J27" s="40">
         <f>SUM(J9:J26)-SUM(K9:K26)</f>
         <v>16</v>
       </c>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35">
+      <c r="K27" s="40"/>
+      <c r="L27" s="40">
         <f>SUM(L9:L26)-SUM(M9:M26)</f>
         <v>52.5</v>
       </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35">
+      <c r="M27" s="40"/>
+      <c r="N27" s="40">
         <f>SUM(N9:N26)-SUM(O9:O26)</f>
         <v>4408</v>
       </c>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35">
+      <c r="O27" s="40"/>
+      <c r="P27" s="40">
         <f>SUM(P9:P26)-SUM(Q9:Q26)</f>
         <v>4100</v>
       </c>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35">
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40">
         <f>SUM(R9:R26)-SUM(S9:S26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35">
+      <c r="S27" s="40"/>
+      <c r="T27" s="40">
         <f>SUM(T9:T26)-SUM(U9:U26)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="35"/>
+      <c r="U27" s="40"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
@@ -1953,70 +1962,70 @@
       <c r="C28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="34">
         <f>D27/6</f>
         <v>143</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34">
         <f>L27/16</f>
         <v>3.28125</v>
       </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36">
+      <c r="M28" s="34"/>
+      <c r="N28" s="34">
         <f>N27/150</f>
         <v>29.386666666666667</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="46">
+      <c r="O28" s="34"/>
+      <c r="P28" s="35">
         <f>P27/200</f>
         <v>20.5</v>
       </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="36">
+      <c r="Q28" s="36"/>
+      <c r="R28" s="34">
         <f>R27/50</f>
         <v>0</v>
       </c>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36">
+      <c r="S28" s="34"/>
+      <c r="T28" s="34">
         <f>T27/8</f>
         <v>0</v>
       </c>
-      <c r="U28" s="36"/>
-      <c r="V28" s="40">
+      <c r="U28" s="34"/>
+      <c r="V28" s="38">
         <f>SUM(D28:S28)</f>
         <v>196.16791666666666</v>
       </c>
-      <c r="W28" s="41"/>
+      <c r="W28" s="39"/>
     </row>
     <row r="29" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="21">
@@ -2029,34 +2038,34 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
-      <c r="V30" s="44">
+      <c r="V30" s="32">
         <f>W29-V29</f>
         <v>9523.5</v>
       </c>
-      <c r="W30" s="45"/>
+      <c r="W30" s="33"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D31" s="29"/>
@@ -2078,24 +2087,33 @@
       <c r="T31" s="29"/>
       <c r="U31" s="29"/>
     </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J32" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="A29:S29"/>
-    <mergeCell ref="A30:S30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
+  <mergeCells count="50">
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A4:W4"/>
     <mergeCell ref="A5:S5"/>
@@ -2112,23 +2130,23 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:S29"/>
+    <mergeCell ref="A30:S30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
     <mergeCell ref="F28:G28"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2209,168 +2227,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="31"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="41"/>
+      <c r="P7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="32" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32" t="s">
+      <c r="S7" s="41"/>
+      <c r="T7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="37" t="s">
+      <c r="U7" s="41"/>
+      <c r="V7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2425,8 +2443,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -2979,51 +2997,51 @@
       <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="40">
         <f>SUM(D9:D22)-SUM(E9:E22)</f>
         <v>752</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40">
         <f>SUM(F9:F22)-SUM(G9:G22)</f>
         <v>68</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35">
+      <c r="G23" s="40"/>
+      <c r="H23" s="40">
         <f>SUM(H9:H22)-SUM(I9:I22)</f>
         <v>15</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35">
+      <c r="I23" s="40"/>
+      <c r="J23" s="40">
         <f>SUM(J9:J22)-SUM(K9:K22)</f>
         <v>16</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40">
         <f>SUM(L9:L22)-SUM(M9:M22)</f>
         <v>51</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35">
+      <c r="M23" s="40"/>
+      <c r="N23" s="40">
         <f>SUM(N9:N22)-SUM(O9:O22)</f>
         <v>4405</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35">
+      <c r="O23" s="40"/>
+      <c r="P23" s="40">
         <f>SUM(P9:P22)-SUM(Q9:Q22)</f>
         <v>4070</v>
       </c>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35">
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40">
         <f>SUM(R9:R22)-SUM(S9:S22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35">
+      <c r="S23" s="40"/>
+      <c r="T23" s="40">
         <f>SUM(T9:T22)-SUM(U9:U22)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="35"/>
+      <c r="U23" s="40"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
     </row>
@@ -3033,70 +3051,70 @@
       <c r="C24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="34">
         <f>D23/6</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34">
         <f>L23/16</f>
         <v>3.1875</v>
       </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36">
+      <c r="M24" s="34"/>
+      <c r="N24" s="34">
         <f>N23/150</f>
         <v>29.366666666666667</v>
       </c>
-      <c r="O24" s="36"/>
-      <c r="P24" s="46">
+      <c r="O24" s="34"/>
+      <c r="P24" s="35">
         <f>P23/200</f>
         <v>20.350000000000001</v>
       </c>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="36">
+      <c r="Q24" s="36"/>
+      <c r="R24" s="34">
         <f>R23/50</f>
         <v>0</v>
       </c>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36">
+      <c r="S24" s="34"/>
+      <c r="T24" s="34">
         <f>T23/8</f>
         <v>0</v>
       </c>
-      <c r="U24" s="36"/>
-      <c r="V24" s="40">
+      <c r="U24" s="34"/>
+      <c r="V24" s="38">
         <f>SUM(D24:S24)</f>
         <v>178.23749999999998</v>
       </c>
-      <c r="W24" s="41"/>
+      <c r="W24" s="39"/>
     </row>
     <row r="25" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="21">
@@ -3109,34 +3127,34 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
-      <c r="V26" s="44">
+      <c r="V26" s="32">
         <f>W25-V25</f>
         <v>9377</v>
       </c>
-      <c r="W26" s="45"/>
+      <c r="W26" s="33"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D27" s="29"/>
@@ -3160,42 +3178,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
     <mergeCell ref="V24:W24"/>
     <mergeCell ref="A25:S25"/>
     <mergeCell ref="A26:S26"/>
@@ -3209,6 +3191,42 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3219,7 +3237,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,168 +3306,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="31"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="41"/>
+      <c r="P7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="32" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32" t="s">
+      <c r="S7" s="41"/>
+      <c r="T7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="37" t="s">
+      <c r="U7" s="41"/>
+      <c r="V7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3504,8 +3522,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -3862,7 +3880,9 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -3879,7 +3899,7 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W17" s="15">
         <f t="shared" si="1"/>
@@ -4192,51 +4212,51 @@
       <c r="C26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="40">
         <f>SUM(D9:D25)-SUM(E9:E25)</f>
         <v>571</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35">
+      <c r="E26" s="40"/>
+      <c r="F26" s="40">
         <f>SUM(F9:F25)-SUM(G9:G25)</f>
         <v>47</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35">
+      <c r="G26" s="40"/>
+      <c r="H26" s="40">
         <f>SUM(H9:H25)-SUM(I9:I25)</f>
-        <v>15</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35">
+        <v>14</v>
+      </c>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40">
         <f>SUM(J9:J25)-SUM(K9:K25)</f>
         <v>14</v>
       </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35">
+      <c r="K26" s="40"/>
+      <c r="L26" s="40">
         <f>SUM(L9:L25)-SUM(M9:M25)</f>
         <v>46</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35">
+      <c r="M26" s="40"/>
+      <c r="N26" s="40">
         <f>SUM(N9:N25)-SUM(O9:O25)</f>
         <v>4330</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35">
+      <c r="O26" s="40"/>
+      <c r="P26" s="40">
         <f>SUM(P9:P25)-SUM(Q9:Q25)</f>
         <v>3850</v>
       </c>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35">
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40">
         <f>SUM(R9:R25)-SUM(S9:S25)</f>
         <v>1</v>
       </c>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35">
+      <c r="S26" s="40"/>
+      <c r="T26" s="40">
         <f>SUM(T9:T25)-SUM(U9:U25)</f>
         <v>87</v>
       </c>
-      <c r="U26" s="35"/>
+      <c r="U26" s="40"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
@@ -4246,75 +4266,75 @@
       <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="34">
         <f>D26/6</f>
         <v>95.166666666666671</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34">
         <f>L26/16</f>
         <v>2.875</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36">
+      <c r="M27" s="34"/>
+      <c r="N27" s="34">
         <f>N26/150</f>
         <v>28.866666666666667</v>
       </c>
-      <c r="O27" s="36"/>
-      <c r="P27" s="46">
+      <c r="O27" s="34"/>
+      <c r="P27" s="35">
         <f>P26/200</f>
         <v>19.25</v>
       </c>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="36">
+      <c r="Q27" s="36"/>
+      <c r="R27" s="34">
         <f>R26/50</f>
         <v>0.02</v>
       </c>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36">
+      <c r="S27" s="34"/>
+      <c r="T27" s="34">
         <f>T26/8</f>
         <v>10.875</v>
       </c>
-      <c r="U27" s="36"/>
-      <c r="V27" s="40">
+      <c r="U27" s="34"/>
+      <c r="V27" s="38">
         <f>SUM(D27:S27)</f>
         <v>146.17833333333334</v>
       </c>
-      <c r="W27" s="41"/>
+      <c r="W27" s="39"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="21">
         <f>SUM(V9:V25)</f>
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="W28" s="21">
         <f>SUM(W9:W25)</f>
@@ -4322,34 +4342,34 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
-      <c r="V29" s="44">
+      <c r="V29" s="32">
         <f>W28-V28</f>
-        <v>8961</v>
-      </c>
-      <c r="W29" s="45"/>
+        <v>8960</v>
+      </c>
+      <c r="W29" s="33"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D30" s="29"/>
@@ -4373,42 +4393,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="A28:S28"/>
     <mergeCell ref="A29:S29"/>
@@ -4422,6 +4406,42 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4432,8 +4452,8 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,168 +4522,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="31"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="41"/>
+      <c r="P7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="32" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32" t="s">
+      <c r="S7" s="41"/>
+      <c r="T7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="37" t="s">
+      <c r="U7" s="41"/>
+      <c r="V7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -4718,8 +4738,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -4738,7 +4758,7 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12">
@@ -4771,7 +4791,7 @@
       </c>
       <c r="W9" s="12">
         <f>D9+F9+H9+J9+L9+N9+P9+R9+T9</f>
-        <v>8961</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -4976,7 +4996,9 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -4993,7 +5015,7 @@
       </c>
       <c r="V15" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15" s="15">
         <f t="shared" si="1"/>
@@ -5407,11 +5429,11 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -5449,14 +5471,16 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="16">
+        <v>44092</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="15">
-        <v>1</v>
-      </c>
+      <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -5470,14 +5494,20 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
+      <c r="U29" s="15">
+        <v>1</v>
+      </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="16">
+        <v>44092</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -5493,12 +5523,14 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
+      <c r="S30" s="15">
+        <v>1</v>
+      </c>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="15">
         <f t="shared" si="1"/>
@@ -5542,51 +5574,51 @@
       <c r="C32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="40">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>558</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35">
+      <c r="E32" s="40"/>
+      <c r="F32" s="40">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
-        <v>41</v>
-      </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35">
+        <v>42</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
-        <v>15</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35">
+        <v>13</v>
+      </c>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
         <v>14</v>
       </c>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35">
+      <c r="K32" s="40"/>
+      <c r="L32" s="40">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>45</v>
       </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35">
+      <c r="M32" s="40"/>
+      <c r="N32" s="40">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
         <v>4300</v>
       </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35">
+      <c r="O32" s="40"/>
+      <c r="P32" s="40">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
         <v>3750</v>
       </c>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35">
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
         <v>84</v>
       </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35">
+      <c r="S32" s="40"/>
+      <c r="T32" s="40">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>76</v>
       </c>
-      <c r="U32" s="35"/>
+      <c r="U32" s="40"/>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
     </row>
@@ -5596,110 +5628,110 @@
       <c r="C33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <f>D32/6</f>
         <v>93</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36">
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34">
         <f>L32/16</f>
         <v>2.8125</v>
       </c>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36">
+      <c r="M33" s="34"/>
+      <c r="N33" s="34">
         <f>N32/150</f>
         <v>28.666666666666668</v>
       </c>
-      <c r="O33" s="36"/>
-      <c r="P33" s="46">
+      <c r="O33" s="34"/>
+      <c r="P33" s="35">
         <f>P32/200</f>
         <v>18.75</v>
       </c>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="36">
+      <c r="Q33" s="36"/>
+      <c r="R33" s="34">
         <f>R32/50</f>
         <v>1.68</v>
       </c>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36">
+      <c r="S33" s="34"/>
+      <c r="T33" s="34">
         <f>T32/8</f>
         <v>9.5</v>
       </c>
-      <c r="U33" s="36"/>
-      <c r="V33" s="40">
+      <c r="U33" s="34"/>
+      <c r="V33" s="38">
         <f>SUM(D33:S33)</f>
         <v>144.90916666666669</v>
       </c>
-      <c r="W33" s="41"/>
+      <c r="W33" s="39"/>
     </row>
     <row r="34" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
       <c r="V34" s="21">
         <f>SUM(V9:V31)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W34" s="21">
         <f>SUM(W9:W31)</f>
-        <v>9061</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
       <c r="T35" s="22"/>
       <c r="U35" s="22"/>
-      <c r="V35" s="44">
+      <c r="V35" s="32">
         <f>W34-V34</f>
-        <v>8998</v>
-      </c>
-      <c r="W35" s="45"/>
+        <v>8995</v>
+      </c>
+      <c r="W35" s="33"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D36" s="29"/>
@@ -5723,42 +5755,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="A34:S34"/>
     <mergeCell ref="A35:S35"/>
@@ -5772,6 +5768,42 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Chị Phương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Lâm </t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -491,12 +494,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,8 +572,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -571,51 +626,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,168 +988,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="45"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="33"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="44" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="41" t="s">
+      <c r="Q7" s="33"/>
+      <c r="R7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41" t="s">
+      <c r="S7" s="30"/>
+      <c r="T7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="42" t="s">
+      <c r="U7" s="30"/>
+      <c r="V7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="W7" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1186,8 +1204,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -1908,51 +1926,51 @@
       <c r="C27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="36">
         <f>SUM(D9:D26)-SUM(E9:E26)</f>
         <v>858</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40">
+      <c r="E27" s="36"/>
+      <c r="F27" s="36">
         <f>SUM(F9:F26)-SUM(G9:G26)</f>
         <v>74</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40">
+      <c r="G27" s="36"/>
+      <c r="H27" s="36">
         <f>SUM(H9:H26)-SUM(I9:I26)</f>
         <v>15</v>
       </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40">
+      <c r="I27" s="36"/>
+      <c r="J27" s="36">
         <f>SUM(J9:J26)-SUM(K9:K26)</f>
         <v>16</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40">
+      <c r="K27" s="36"/>
+      <c r="L27" s="36">
         <f>SUM(L9:L26)-SUM(M9:M26)</f>
         <v>52.5</v>
       </c>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40">
+      <c r="M27" s="36"/>
+      <c r="N27" s="36">
         <f>SUM(N9:N26)-SUM(O9:O26)</f>
         <v>4408</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40">
+      <c r="O27" s="36"/>
+      <c r="P27" s="36">
         <f>SUM(P9:P26)-SUM(Q9:Q26)</f>
         <v>4100</v>
       </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40">
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36">
         <f>SUM(R9:R26)-SUM(S9:S26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40">
+      <c r="S27" s="36"/>
+      <c r="T27" s="36">
         <f>SUM(T9:T26)-SUM(U9:U26)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="40"/>
+      <c r="U27" s="36"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
@@ -1962,70 +1980,70 @@
       <c r="C28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="37">
         <f>D27/6</f>
         <v>143</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34">
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37">
         <f>L27/16</f>
         <v>3.28125</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34">
+      <c r="M28" s="37"/>
+      <c r="N28" s="37">
         <f>N27/150</f>
         <v>29.386666666666667</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="35">
+      <c r="O28" s="37"/>
+      <c r="P28" s="47">
         <f>P27/200</f>
         <v>20.5</v>
       </c>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="34">
+      <c r="Q28" s="48"/>
+      <c r="R28" s="37">
         <f>R27/50</f>
         <v>0</v>
       </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34">
+      <c r="S28" s="37"/>
+      <c r="T28" s="37">
         <f>T27/8</f>
         <v>0</v>
       </c>
-      <c r="U28" s="34"/>
-      <c r="V28" s="38">
+      <c r="U28" s="37"/>
+      <c r="V28" s="39">
         <f>SUM(D28:S28)</f>
         <v>196.16791666666666</v>
       </c>
-      <c r="W28" s="39"/>
+      <c r="W28" s="40"/>
     </row>
     <row r="29" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="21">
@@ -2038,81 +2056,72 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
-      <c r="V30" s="32">
+      <c r="V30" s="45">
         <f>W29-V29</f>
         <v>9523.5</v>
       </c>
-      <c r="W30" s="33"/>
+      <c r="W30" s="46"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A4:W4"/>
@@ -2129,16 +2138,25 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="A29:S29"/>
     <mergeCell ref="A30:S30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="D31:E31"/>
@@ -2227,168 +2245,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="45"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="33"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="44" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="41" t="s">
+      <c r="Q7" s="33"/>
+      <c r="R7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41" t="s">
+      <c r="S7" s="30"/>
+      <c r="T7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="42" t="s">
+      <c r="U7" s="30"/>
+      <c r="V7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="W7" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2443,8 +2461,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -2997,51 +3015,51 @@
       <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="36">
         <f>SUM(D9:D22)-SUM(E9:E22)</f>
         <v>752</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>SUM(F9:F22)-SUM(G9:G22)</f>
         <v>68</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40">
+      <c r="G23" s="36"/>
+      <c r="H23" s="36">
         <f>SUM(H9:H22)-SUM(I9:I22)</f>
         <v>15</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40">
+      <c r="I23" s="36"/>
+      <c r="J23" s="36">
         <f>SUM(J9:J22)-SUM(K9:K22)</f>
         <v>16</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36">
         <f>SUM(L9:L22)-SUM(M9:M22)</f>
         <v>51</v>
       </c>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40">
+      <c r="M23" s="36"/>
+      <c r="N23" s="36">
         <f>SUM(N9:N22)-SUM(O9:O22)</f>
         <v>4405</v>
       </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40">
+      <c r="O23" s="36"/>
+      <c r="P23" s="36">
         <f>SUM(P9:P22)-SUM(Q9:Q22)</f>
         <v>4070</v>
       </c>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40">
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36">
         <f>SUM(R9:R22)-SUM(S9:S22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40">
+      <c r="S23" s="36"/>
+      <c r="T23" s="36">
         <f>SUM(T9:T22)-SUM(U9:U22)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="40"/>
+      <c r="U23" s="36"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
     </row>
@@ -3051,70 +3069,70 @@
       <c r="C24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="37">
         <f>D23/6</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34">
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37">
         <f>L23/16</f>
         <v>3.1875</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34">
+      <c r="M24" s="37"/>
+      <c r="N24" s="37">
         <f>N23/150</f>
         <v>29.366666666666667</v>
       </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35">
+      <c r="O24" s="37"/>
+      <c r="P24" s="47">
         <f>P23/200</f>
         <v>20.350000000000001</v>
       </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="34">
+      <c r="Q24" s="48"/>
+      <c r="R24" s="37">
         <f>R23/50</f>
         <v>0</v>
       </c>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34">
+      <c r="S24" s="37"/>
+      <c r="T24" s="37">
         <f>T23/8</f>
         <v>0</v>
       </c>
-      <c r="U24" s="34"/>
-      <c r="V24" s="38">
+      <c r="U24" s="37"/>
+      <c r="V24" s="39">
         <f>SUM(D24:S24)</f>
         <v>178.23749999999998</v>
       </c>
-      <c r="W24" s="39"/>
+      <c r="W24" s="40"/>
     </row>
     <row r="25" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="21">
@@ -3127,91 +3145,57 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
-      <c r="V26" s="32">
+      <c r="V26" s="45">
         <f>W25-V25</f>
         <v>9377</v>
       </c>
-      <c r="W26" s="33"/>
+      <c r="W26" s="46"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A26:S26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="A3:W3"/>
@@ -3227,6 +3211,40 @@
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A26:S26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3306,168 +3324,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="45"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="33"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="44" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="41" t="s">
+      <c r="Q7" s="33"/>
+      <c r="R7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41" t="s">
+      <c r="S7" s="30"/>
+      <c r="T7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="42" t="s">
+      <c r="U7" s="30"/>
+      <c r="V7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="W7" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3522,8 +3540,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -4212,51 +4230,51 @@
       <c r="C26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="36">
         <f>SUM(D9:D25)-SUM(E9:E25)</f>
         <v>571</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40">
+      <c r="E26" s="36"/>
+      <c r="F26" s="36">
         <f>SUM(F9:F25)-SUM(G9:G25)</f>
         <v>47</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40">
+      <c r="G26" s="36"/>
+      <c r="H26" s="36">
         <f>SUM(H9:H25)-SUM(I9:I25)</f>
         <v>14</v>
       </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40">
+      <c r="I26" s="36"/>
+      <c r="J26" s="36">
         <f>SUM(J9:J25)-SUM(K9:K25)</f>
         <v>14</v>
       </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40">
+      <c r="K26" s="36"/>
+      <c r="L26" s="36">
         <f>SUM(L9:L25)-SUM(M9:M25)</f>
         <v>46</v>
       </c>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40">
+      <c r="M26" s="36"/>
+      <c r="N26" s="36">
         <f>SUM(N9:N25)-SUM(O9:O25)</f>
         <v>4330</v>
       </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40">
+      <c r="O26" s="36"/>
+      <c r="P26" s="36">
         <f>SUM(P9:P25)-SUM(Q9:Q25)</f>
         <v>3850</v>
       </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40">
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36">
         <f>SUM(R9:R25)-SUM(S9:S25)</f>
         <v>1</v>
       </c>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40">
+      <c r="S26" s="36"/>
+      <c r="T26" s="36">
         <f>SUM(T9:T25)-SUM(U9:U25)</f>
         <v>87</v>
       </c>
-      <c r="U26" s="40"/>
+      <c r="U26" s="36"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
@@ -4266,70 +4284,70 @@
       <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="37">
         <f>D26/6</f>
         <v>95.166666666666671</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37">
         <f>L26/16</f>
         <v>2.875</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34">
+      <c r="M27" s="37"/>
+      <c r="N27" s="37">
         <f>N26/150</f>
         <v>28.866666666666667</v>
       </c>
-      <c r="O27" s="34"/>
-      <c r="P27" s="35">
+      <c r="O27" s="37"/>
+      <c r="P27" s="47">
         <f>P26/200</f>
         <v>19.25</v>
       </c>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="34">
+      <c r="Q27" s="48"/>
+      <c r="R27" s="37">
         <f>R26/50</f>
         <v>0.02</v>
       </c>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34">
+      <c r="S27" s="37"/>
+      <c r="T27" s="37">
         <f>T26/8</f>
         <v>10.875</v>
       </c>
-      <c r="U27" s="34"/>
-      <c r="V27" s="38">
+      <c r="U27" s="37"/>
+      <c r="V27" s="39">
         <f>SUM(D27:S27)</f>
         <v>146.17833333333334</v>
       </c>
-      <c r="W27" s="39"/>
+      <c r="W27" s="40"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="21">
@@ -4342,91 +4360,57 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
-      <c r="V29" s="32">
+      <c r="V29" s="45">
         <f>W28-V28</f>
         <v>8960</v>
       </c>
-      <c r="W29" s="33"/>
+      <c r="W29" s="46"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="A28:S28"/>
-    <mergeCell ref="A29:S29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="A3:W3"/>
@@ -4442,6 +4426,40 @@
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="A29:S29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4449,11 +4467,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
+      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,168 +4540,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="45"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="33"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="44" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="41" t="s">
+      <c r="Q7" s="33"/>
+      <c r="R7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41" t="s">
+      <c r="S7" s="30"/>
+      <c r="T7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="42" t="s">
+      <c r="U7" s="30"/>
+      <c r="V7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="W7" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -4738,8 +4756,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -4823,11 +4841,11 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15">
-        <f t="shared" ref="V10:V31" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
+        <f t="shared" ref="V10:V33" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
         <v>1</v>
       </c>
       <c r="W10" s="15">
-        <f t="shared" ref="W10:W31" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10</f>
+        <f t="shared" ref="W10:W33" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10</f>
         <v>0</v>
       </c>
     </row>
@@ -5538,259 +5556,283 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50">
+        <v>44096</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49">
+        <v>2</v>
+      </c>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49">
+        <v>3</v>
+      </c>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W31" s="25">
+      <c r="W33" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19" t="s">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="40">
-        <f>SUM(D9:D31)-SUM(E9:E31)</f>
+      <c r="D34" s="36">
+        <f>SUM(D9:D33)-SUM(E9:E33)</f>
         <v>558</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40">
-        <f>SUM(F9:F31)-SUM(G9:G31)</f>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36">
+        <f>SUM(F9:F33)-SUM(G9:G33)</f>
         <v>42</v>
       </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40">
-        <f>SUM(H9:H31)-SUM(I9:I31)</f>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36">
+        <f>SUM(H9:H33)-SUM(I9:I33)</f>
         <v>13</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40">
-        <f>SUM(J9:J31)-SUM(K9:K31)</f>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36">
+        <f>SUM(J9:J33)-SUM(K9:K33)</f>
         <v>14</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40">
-        <f>SUM(L9:L31)-SUM(M9:M31)</f>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36">
+        <f>SUM(L9:L33)-SUM(M9:M33)</f>
         <v>45</v>
       </c>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40">
-        <f>SUM(N9:N31)-SUM(O9:O31)</f>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36">
+        <f>SUM(N9:N33)-SUM(O9:O33)</f>
         <v>4300</v>
       </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40">
-        <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36">
+        <f>SUM(P9:P33)-SUM(Q9:Q33)</f>
         <v>3750</v>
       </c>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40">
-        <f>SUM(R9:R31)-SUM(S9:S31)</f>
-        <v>84</v>
-      </c>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40">
-        <f>SUM(T9:T31)-SUM(U9:U31)</f>
-        <v>76</v>
-      </c>
-      <c r="U32" s="40"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19" t="s">
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36">
+        <f>SUM(R9:R33)-SUM(S9:S33)</f>
+        <v>82</v>
+      </c>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36">
+        <f>SUM(T9:T33)-SUM(U9:U33)</f>
+        <v>73</v>
+      </c>
+      <c r="U34" s="36"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="34">
-        <f>D32/6</f>
+      <c r="D35" s="37">
+        <f>D34/6</f>
         <v>93</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34">
-        <f>L32/16</f>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37">
+        <f>L34/16</f>
         <v>2.8125</v>
       </c>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34">
-        <f>N32/150</f>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37">
+        <f>N34/150</f>
         <v>28.666666666666668</v>
       </c>
-      <c r="O33" s="34"/>
-      <c r="P33" s="35">
-        <f>P32/200</f>
+      <c r="O35" s="37"/>
+      <c r="P35" s="47">
+        <f>P34/200</f>
         <v>18.75</v>
       </c>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="34">
-        <f>R32/50</f>
-        <v>1.68</v>
-      </c>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34">
-        <f>T32/8</f>
-        <v>9.5</v>
-      </c>
-      <c r="U33" s="34"/>
-      <c r="V33" s="38">
-        <f>SUM(D33:S33)</f>
-        <v>144.90916666666669</v>
-      </c>
-      <c r="W33" s="39"/>
-    </row>
-    <row r="34" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="Q35" s="48"/>
+      <c r="R35" s="37">
+        <f>R34/50</f>
+        <v>1.64</v>
+      </c>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37">
+        <f>T34/8</f>
+        <v>9.125</v>
+      </c>
+      <c r="U35" s="37"/>
+      <c r="V35" s="39">
+        <f>SUM(D35:S35)</f>
+        <v>144.86916666666667</v>
+      </c>
+      <c r="W35" s="40"/>
+    </row>
+    <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="21">
-        <f>SUM(V9:V31)</f>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="21">
+        <f>SUM(V9:V33)</f>
         <v>65</v>
       </c>
-      <c r="W34" s="21">
-        <f>SUM(W9:W31)</f>
+      <c r="W36" s="21">
+        <f>SUM(W9:W33)</f>
         <v>9060</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="32">
-        <f>W34-V34</f>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="45">
+        <f>W36-V36</f>
         <v>8995</v>
       </c>
-      <c r="W35" s="33"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
+      <c r="W37" s="46"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="A34:S34"/>
-    <mergeCell ref="A35:S35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A4:W4"/>
     <mergeCell ref="A5:S5"/>
@@ -5804,6 +5846,40 @@
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="A36:S36"/>
+    <mergeCell ref="A37:S37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="84">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t xml:space="preserve">Anh Lâm </t>
+  </si>
+  <si>
+    <t>anh trang QC</t>
+  </si>
+  <si>
+    <t>Chị Lý</t>
+  </si>
+  <si>
+    <t>Anh sơn</t>
   </si>
 </sst>
 </file>
@@ -572,31 +581,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -608,11 +607,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -620,20 +643,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,157 +997,157 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="33"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="32" t="s">
+      <c r="O7" s="40"/>
+      <c r="P7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="30" t="s">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30" t="s">
+      <c r="S7" s="40"/>
+      <c r="T7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="30"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="41" t="s">
         <v>5</v>
       </c>
@@ -1147,9 +1156,9 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1926,51 +1935,51 @@
       <c r="C27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="39">
         <f>SUM(D9:D26)-SUM(E9:E26)</f>
         <v>858</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36">
+      <c r="E27" s="39"/>
+      <c r="F27" s="39">
         <f>SUM(F9:F26)-SUM(G9:G26)</f>
         <v>74</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36">
+      <c r="G27" s="39"/>
+      <c r="H27" s="39">
         <f>SUM(H9:H26)-SUM(I9:I26)</f>
         <v>15</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36">
+      <c r="I27" s="39"/>
+      <c r="J27" s="39">
         <f>SUM(J9:J26)-SUM(K9:K26)</f>
         <v>16</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36">
+      <c r="K27" s="39"/>
+      <c r="L27" s="39">
         <f>SUM(L9:L26)-SUM(M9:M26)</f>
         <v>52.5</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36">
+      <c r="M27" s="39"/>
+      <c r="N27" s="39">
         <f>SUM(N9:N26)-SUM(O9:O26)</f>
         <v>4408</v>
       </c>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36">
+      <c r="O27" s="39"/>
+      <c r="P27" s="39">
         <f>SUM(P9:P26)-SUM(Q9:Q26)</f>
         <v>4100</v>
       </c>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36">
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39">
         <f>SUM(R9:R26)-SUM(S9:S26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36">
+      <c r="S27" s="39"/>
+      <c r="T27" s="39">
         <f>SUM(T9:T26)-SUM(U9:U26)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="36"/>
+      <c r="U27" s="39"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
@@ -1980,70 +1989,70 @@
       <c r="C28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="33">
         <f>D27/6</f>
         <v>143</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37">
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33">
         <f>L27/16</f>
         <v>3.28125</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37">
+      <c r="M28" s="33"/>
+      <c r="N28" s="33">
         <f>N27/150</f>
         <v>29.386666666666667</v>
       </c>
-      <c r="O28" s="37"/>
-      <c r="P28" s="47">
+      <c r="O28" s="33"/>
+      <c r="P28" s="34">
         <f>P27/200</f>
         <v>20.5</v>
       </c>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="37">
+      <c r="Q28" s="35"/>
+      <c r="R28" s="33">
         <f>R27/50</f>
         <v>0</v>
       </c>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37">
+      <c r="S28" s="33"/>
+      <c r="T28" s="33">
         <f>T27/8</f>
         <v>0</v>
       </c>
-      <c r="U28" s="37"/>
-      <c r="V28" s="39">
+      <c r="U28" s="33"/>
+      <c r="V28" s="37">
         <f>SUM(D28:S28)</f>
         <v>196.16791666666666</v>
       </c>
-      <c r="W28" s="40"/>
+      <c r="W28" s="38"/>
     </row>
     <row r="29" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="21">
@@ -2056,72 +2065,92 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
-      <c r="V30" s="45">
+      <c r="V30" s="31">
         <f>W29-V29</f>
         <v>9523.5</v>
       </c>
-      <c r="W30" s="46"/>
+      <c r="W30" s="32"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J32" s="29" t="s">
+      <c r="J32" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A29:S29"/>
+    <mergeCell ref="A30:S30"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A4:W4"/>
@@ -2138,33 +2167,13 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A29:S29"/>
-    <mergeCell ref="A30:S30"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2245,157 +2254,157 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="33"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="32" t="s">
+      <c r="O7" s="40"/>
+      <c r="P7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="30" t="s">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30" t="s">
+      <c r="S7" s="40"/>
+      <c r="T7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="30"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="41" t="s">
         <v>5</v>
       </c>
@@ -2404,9 +2413,9 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3015,51 +3024,51 @@
       <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="39">
         <f>SUM(D9:D22)-SUM(E9:E22)</f>
         <v>752</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39">
         <f>SUM(F9:F22)-SUM(G9:G22)</f>
         <v>68</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36">
+      <c r="G23" s="39"/>
+      <c r="H23" s="39">
         <f>SUM(H9:H22)-SUM(I9:I22)</f>
         <v>15</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36">
+      <c r="I23" s="39"/>
+      <c r="J23" s="39">
         <f>SUM(J9:J22)-SUM(K9:K22)</f>
         <v>16</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36">
+      <c r="K23" s="39"/>
+      <c r="L23" s="39">
         <f>SUM(L9:L22)-SUM(M9:M22)</f>
         <v>51</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36">
+      <c r="M23" s="39"/>
+      <c r="N23" s="39">
         <f>SUM(N9:N22)-SUM(O9:O22)</f>
         <v>4405</v>
       </c>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36">
+      <c r="O23" s="39"/>
+      <c r="P23" s="39">
         <f>SUM(P9:P22)-SUM(Q9:Q22)</f>
         <v>4070</v>
       </c>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36">
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39">
         <f>SUM(R9:R22)-SUM(S9:S22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36">
+      <c r="S23" s="39"/>
+      <c r="T23" s="39">
         <f>SUM(T9:T22)-SUM(U9:U22)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="36"/>
+      <c r="U23" s="39"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
     </row>
@@ -3069,70 +3078,70 @@
       <c r="C24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="33">
         <f>D23/6</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33">
         <f>L23/16</f>
         <v>3.1875</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37">
+      <c r="M24" s="33"/>
+      <c r="N24" s="33">
         <f>N23/150</f>
         <v>29.366666666666667</v>
       </c>
-      <c r="O24" s="37"/>
-      <c r="P24" s="47">
+      <c r="O24" s="33"/>
+      <c r="P24" s="34">
         <f>P23/200</f>
         <v>20.350000000000001</v>
       </c>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="37">
+      <c r="Q24" s="35"/>
+      <c r="R24" s="33">
         <f>R23/50</f>
         <v>0</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37">
+      <c r="S24" s="33"/>
+      <c r="T24" s="33">
         <f>T23/8</f>
         <v>0</v>
       </c>
-      <c r="U24" s="37"/>
-      <c r="V24" s="39">
+      <c r="U24" s="33"/>
+      <c r="V24" s="37">
         <f>SUM(D24:S24)</f>
         <v>178.23749999999998</v>
       </c>
-      <c r="W24" s="40"/>
+      <c r="W24" s="38"/>
     </row>
     <row r="25" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="21">
@@ -3145,57 +3154,90 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
-      <c r="V26" s="45">
+      <c r="V26" s="31">
         <f>W25-V25</f>
         <v>9377</v>
       </c>
-      <c r="W26" s="46"/>
+      <c r="W26" s="32"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A26:S26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="A3:W3"/>
@@ -3212,39 +3254,6 @@
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A26:S26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3324,157 +3333,157 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="33"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="32" t="s">
+      <c r="O7" s="40"/>
+      <c r="P7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="30" t="s">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30" t="s">
+      <c r="S7" s="40"/>
+      <c r="T7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="30"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="41" t="s">
         <v>5</v>
       </c>
@@ -3483,9 +3492,9 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -4230,51 +4239,51 @@
       <c r="C26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="39">
         <f>SUM(D9:D25)-SUM(E9:E25)</f>
         <v>571</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36">
+      <c r="E26" s="39"/>
+      <c r="F26" s="39">
         <f>SUM(F9:F25)-SUM(G9:G25)</f>
         <v>47</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36">
+      <c r="G26" s="39"/>
+      <c r="H26" s="39">
         <f>SUM(H9:H25)-SUM(I9:I25)</f>
         <v>14</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36">
+      <c r="I26" s="39"/>
+      <c r="J26" s="39">
         <f>SUM(J9:J25)-SUM(K9:K25)</f>
         <v>14</v>
       </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36">
+      <c r="K26" s="39"/>
+      <c r="L26" s="39">
         <f>SUM(L9:L25)-SUM(M9:M25)</f>
         <v>46</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36">
+      <c r="M26" s="39"/>
+      <c r="N26" s="39">
         <f>SUM(N9:N25)-SUM(O9:O25)</f>
         <v>4330</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36">
+      <c r="O26" s="39"/>
+      <c r="P26" s="39">
         <f>SUM(P9:P25)-SUM(Q9:Q25)</f>
         <v>3850</v>
       </c>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36">
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39">
         <f>SUM(R9:R25)-SUM(S9:S25)</f>
         <v>1</v>
       </c>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36">
+      <c r="S26" s="39"/>
+      <c r="T26" s="39">
         <f>SUM(T9:T25)-SUM(U9:U25)</f>
         <v>87</v>
       </c>
-      <c r="U26" s="36"/>
+      <c r="U26" s="39"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
@@ -4284,70 +4293,70 @@
       <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="33">
         <f>D26/6</f>
         <v>95.166666666666671</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37">
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33">
         <f>L26/16</f>
         <v>2.875</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37">
+      <c r="M27" s="33"/>
+      <c r="N27" s="33">
         <f>N26/150</f>
         <v>28.866666666666667</v>
       </c>
-      <c r="O27" s="37"/>
-      <c r="P27" s="47">
+      <c r="O27" s="33"/>
+      <c r="P27" s="34">
         <f>P26/200</f>
         <v>19.25</v>
       </c>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="37">
+      <c r="Q27" s="35"/>
+      <c r="R27" s="33">
         <f>R26/50</f>
         <v>0.02</v>
       </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37">
+      <c r="S27" s="33"/>
+      <c r="T27" s="33">
         <f>T26/8</f>
         <v>10.875</v>
       </c>
-      <c r="U27" s="37"/>
-      <c r="V27" s="39">
+      <c r="U27" s="33"/>
+      <c r="V27" s="37">
         <f>SUM(D27:S27)</f>
         <v>146.17833333333334</v>
       </c>
-      <c r="W27" s="40"/>
+      <c r="W27" s="38"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="21">
@@ -4360,57 +4369,90 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
-      <c r="V29" s="45">
+      <c r="V29" s="31">
         <f>W28-V28</f>
         <v>8960</v>
       </c>
-      <c r="W29" s="46"/>
+      <c r="W29" s="32"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="A29:S29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P26:Q26"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="A3:W3"/>
@@ -4427,39 +4469,6 @@
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="A28:S28"/>
-    <mergeCell ref="A29:S29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4467,11 +4476,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,157 +4549,157 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="33"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="32" t="s">
+      <c r="O7" s="40"/>
+      <c r="P7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="30" t="s">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30" t="s">
+      <c r="S7" s="40"/>
+      <c r="T7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="30"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="41" t="s">
         <v>5</v>
       </c>
@@ -4699,9 +4708,9 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -4841,11 +4850,11 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15">
-        <f t="shared" ref="V10:V33" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
+        <f t="shared" ref="V10:V36" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
         <v>1</v>
       </c>
       <c r="W10" s="15">
-        <f t="shared" ref="W10:W33" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10</f>
+        <f t="shared" ref="W10:W36" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10</f>
         <v>0</v>
       </c>
     </row>
@@ -5556,283 +5565,430 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30">
         <v>44096</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29">
         <v>2</v>
       </c>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49">
+      <c r="T31" s="29"/>
+      <c r="U31" s="29">
         <v>3</v>
       </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30">
+        <v>44118</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29">
+        <v>12</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29">
+        <v>1</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29">
+        <v>4</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29">
+        <v>1</v>
+      </c>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29">
+        <v>1</v>
+      </c>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29">
+        <v>3</v>
+      </c>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29">
+        <v>3</v>
+      </c>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30">
+        <v>44113</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29">
+        <v>12</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29">
+        <v>1</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W33" s="25">
+      <c r="W36" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="36">
-        <f>SUM(D9:D33)-SUM(E9:E33)</f>
-        <v>558</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36">
-        <f>SUM(F9:F33)-SUM(G9:G33)</f>
-        <v>42</v>
-      </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36">
-        <f>SUM(H9:H33)-SUM(I9:I33)</f>
-        <v>13</v>
-      </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36">
-        <f>SUM(J9:J33)-SUM(K9:K33)</f>
+      <c r="D37" s="39">
+        <f>SUM(D9:D36)-SUM(E9:E36)</f>
+        <v>534</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39">
+        <f>SUM(F9:F36)-SUM(G9:G36)</f>
+        <v>40</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39">
+        <f>SUM(H9:H36)-SUM(I9:I36)</f>
+        <v>9</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39">
+        <f>SUM(J9:J36)-SUM(K9:K36)</f>
         <v>14</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36">
-        <f>SUM(L9:L33)-SUM(M9:M33)</f>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39">
+        <f>SUM(L9:L36)-SUM(M9:M36)</f>
         <v>45</v>
       </c>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36">
-        <f>SUM(N9:N33)-SUM(O9:O33)</f>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39">
+        <f>SUM(N9:N36)-SUM(O9:O36)</f>
         <v>4300</v>
       </c>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36">
-        <f>SUM(P9:P33)-SUM(Q9:Q33)</f>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39">
+        <f>SUM(P9:P36)-SUM(Q9:Q36)</f>
         <v>3750</v>
       </c>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36">
-        <f>SUM(R9:R33)-SUM(S9:S33)</f>
-        <v>82</v>
-      </c>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36">
-        <f>SUM(T9:T33)-SUM(U9:U33)</f>
-        <v>73</v>
-      </c>
-      <c r="U34" s="36"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19" t="s">
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39">
+        <f>SUM(R9:R36)-SUM(S9:S36)</f>
+        <v>78</v>
+      </c>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39">
+        <f>SUM(T9:T36)-SUM(U9:U36)</f>
+        <v>69</v>
+      </c>
+      <c r="U37" s="39"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="37">
-        <f>D34/6</f>
-        <v>93</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37">
-        <f>L34/16</f>
+      <c r="D38" s="33">
+        <f>D37/6</f>
+        <v>89</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33">
+        <f>L37/16</f>
         <v>2.8125</v>
       </c>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37">
-        <f>N34/150</f>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33">
+        <f>N37/150</f>
         <v>28.666666666666668</v>
       </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="47">
-        <f>P34/200</f>
+      <c r="O38" s="33"/>
+      <c r="P38" s="34">
+        <f>P37/200</f>
         <v>18.75</v>
       </c>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="37">
-        <f>R34/50</f>
-        <v>1.64</v>
-      </c>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37">
-        <f>T34/8</f>
-        <v>9.125</v>
-      </c>
-      <c r="U35" s="37"/>
-      <c r="V35" s="39">
-        <f>SUM(D35:S35)</f>
-        <v>144.86916666666667</v>
-      </c>
-      <c r="W35" s="40"/>
-    </row>
-    <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="Q38" s="35"/>
+      <c r="R38" s="33">
+        <f>R37/50</f>
+        <v>1.56</v>
+      </c>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33">
+        <f>T37/8</f>
+        <v>8.625</v>
+      </c>
+      <c r="U38" s="33"/>
+      <c r="V38" s="37">
+        <f>SUM(D38:S38)</f>
+        <v>140.78916666666669</v>
+      </c>
+      <c r="W38" s="38"/>
+    </row>
+    <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="21">
-        <f>SUM(V9:V33)</f>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="21">
+        <f>SUM(V9:V36)</f>
         <v>65</v>
       </c>
-      <c r="W36" s="21">
-        <f>SUM(W9:W33)</f>
+      <c r="W39" s="21">
+        <f>SUM(W9:W36)</f>
         <v>9060</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="45">
-        <f>W36-V36</f>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="31">
+        <f>W39-V39</f>
         <v>8995</v>
       </c>
-      <c r="W37" s="46"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
+      <c r="W40" s="32"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I42" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I43" s="3">
+        <f>13-9</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="A39:S39"/>
+    <mergeCell ref="A40:S40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A4:W4"/>
     <mergeCell ref="A5:S5"/>
@@ -5847,39 +6003,6 @@
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="A36:S36"/>
-    <mergeCell ref="A37:S37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
     <sheet name="T7" sheetId="2" r:id="rId2"/>
     <sheet name="T8" sheetId="3" r:id="rId3"/>
     <sheet name="T9" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -274,6 +275,60 @@
   </si>
   <si>
     <t>Anh sơn</t>
+  </si>
+  <si>
+    <t>Đl Quỳnh Baby</t>
+  </si>
+  <si>
+    <t>Chị Na Đồng Nai</t>
+  </si>
+  <si>
+    <t>Xuất Showroom</t>
+  </si>
+  <si>
+    <t>Họp báo</t>
+  </si>
+  <si>
+    <t>Chị Bởi Hà Giang</t>
+  </si>
+  <si>
+    <t>Showroom</t>
+  </si>
+  <si>
+    <t>Tặng Nam</t>
+  </si>
+  <si>
+    <t>Tặng A.Hải Hàng xóm</t>
+  </si>
+  <si>
+    <t>Chú tuấn (Chị tuyết)</t>
+  </si>
+  <si>
+    <t>Anh Lâm</t>
+  </si>
+  <si>
+    <t>A Lâm đi Lào Cai</t>
+  </si>
+  <si>
+    <t>Vỡ</t>
+  </si>
+  <si>
+    <t>Tặng nhân viên</t>
+  </si>
+  <si>
+    <t>Anh Hùng</t>
+  </si>
+  <si>
+    <t>18th+250</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>1th 150c</t>
   </si>
 </sst>
 </file>
@@ -521,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,6 +638,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J32" sqref="J32:M32"/>
     </sheetView>
   </sheetViews>
@@ -997,168 +1065,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="46"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="44" t="s">
+      <c r="O7" s="45"/>
+      <c r="P7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="40" t="s">
+      <c r="Q7" s="51"/>
+      <c r="R7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40" t="s">
+      <c r="S7" s="45"/>
+      <c r="T7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="41" t="s">
+      <c r="U7" s="45"/>
+      <c r="V7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="41" t="s">
+      <c r="W7" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1213,8 +1281,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -1935,51 +2003,51 @@
       <c r="C27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="44">
         <f>SUM(D9:D26)-SUM(E9:E26)</f>
         <v>858</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39">
+      <c r="E27" s="44"/>
+      <c r="F27" s="44">
         <f>SUM(F9:F26)-SUM(G9:G26)</f>
         <v>74</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39">
+      <c r="G27" s="44"/>
+      <c r="H27" s="44">
         <f>SUM(H9:H26)-SUM(I9:I26)</f>
         <v>15</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39">
+      <c r="I27" s="44"/>
+      <c r="J27" s="44">
         <f>SUM(J9:J26)-SUM(K9:K26)</f>
         <v>16</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39">
+      <c r="K27" s="44"/>
+      <c r="L27" s="44">
         <f>SUM(L9:L26)-SUM(M9:M26)</f>
         <v>52.5</v>
       </c>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39">
+      <c r="M27" s="44"/>
+      <c r="N27" s="44">
         <f>SUM(N9:N26)-SUM(O9:O26)</f>
         <v>4408</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39">
+      <c r="O27" s="44"/>
+      <c r="P27" s="44">
         <f>SUM(P9:P26)-SUM(Q9:Q26)</f>
         <v>4100</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39">
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44">
         <f>SUM(R9:R26)-SUM(S9:S26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39">
+      <c r="S27" s="44"/>
+      <c r="T27" s="44">
         <f>SUM(T9:T26)-SUM(U9:U26)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="39"/>
+      <c r="U27" s="44"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
@@ -1989,70 +2057,70 @@
       <c r="C28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="38">
         <f>D27/6</f>
         <v>143</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38">
         <f>L27/16</f>
         <v>3.28125</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33">
+      <c r="M28" s="38"/>
+      <c r="N28" s="38">
         <f>N27/150</f>
         <v>29.386666666666667</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="34">
+      <c r="O28" s="38"/>
+      <c r="P28" s="39">
         <f>P27/200</f>
         <v>20.5</v>
       </c>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="33">
+      <c r="Q28" s="40"/>
+      <c r="R28" s="38">
         <f>R27/50</f>
         <v>0</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33">
+      <c r="S28" s="38"/>
+      <c r="T28" s="38">
         <f>T27/8</f>
         <v>0</v>
       </c>
-      <c r="U28" s="33"/>
-      <c r="V28" s="37">
+      <c r="U28" s="38"/>
+      <c r="V28" s="42">
         <f>SUM(D28:S28)</f>
         <v>196.16791666666666</v>
       </c>
-      <c r="W28" s="38"/>
+      <c r="W28" s="43"/>
     </row>
     <row r="29" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="21">
@@ -2065,62 +2133,62 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
-      <c r="V30" s="31">
+      <c r="V30" s="36">
         <f>W29-V29</f>
         <v>9523.5</v>
       </c>
-      <c r="W30" s="32"/>
+      <c r="W30" s="37"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J32" s="47" t="s">
+      <c r="J32" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -2184,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -2254,168 +2322,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="46"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="44" t="s">
+      <c r="O7" s="45"/>
+      <c r="P7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="40" t="s">
+      <c r="Q7" s="51"/>
+      <c r="R7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40" t="s">
+      <c r="S7" s="45"/>
+      <c r="T7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="41" t="s">
+      <c r="U7" s="45"/>
+      <c r="V7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="41" t="s">
+      <c r="W7" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2470,8 +2538,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -3024,51 +3092,51 @@
       <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="44">
         <f>SUM(D9:D22)-SUM(E9:E22)</f>
         <v>752</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39">
+      <c r="E23" s="44"/>
+      <c r="F23" s="44">
         <f>SUM(F9:F22)-SUM(G9:G22)</f>
         <v>68</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39">
+      <c r="G23" s="44"/>
+      <c r="H23" s="44">
         <f>SUM(H9:H22)-SUM(I9:I22)</f>
         <v>15</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39">
+      <c r="I23" s="44"/>
+      <c r="J23" s="44">
         <f>SUM(J9:J22)-SUM(K9:K22)</f>
         <v>16</v>
       </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39">
+      <c r="K23" s="44"/>
+      <c r="L23" s="44">
         <f>SUM(L9:L22)-SUM(M9:M22)</f>
         <v>51</v>
       </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39">
+      <c r="M23" s="44"/>
+      <c r="N23" s="44">
         <f>SUM(N9:N22)-SUM(O9:O22)</f>
         <v>4405</v>
       </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39">
+      <c r="O23" s="44"/>
+      <c r="P23" s="44">
         <f>SUM(P9:P22)-SUM(Q9:Q22)</f>
         <v>4070</v>
       </c>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39">
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44">
         <f>SUM(R9:R22)-SUM(S9:S22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39">
+      <c r="S23" s="44"/>
+      <c r="T23" s="44">
         <f>SUM(T9:T22)-SUM(U9:U22)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="39"/>
+      <c r="U23" s="44"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
     </row>
@@ -3078,70 +3146,70 @@
       <c r="C24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="38">
         <f>D23/6</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38">
         <f>L23/16</f>
         <v>3.1875</v>
       </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33">
+      <c r="M24" s="38"/>
+      <c r="N24" s="38">
         <f>N23/150</f>
         <v>29.366666666666667</v>
       </c>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34">
+      <c r="O24" s="38"/>
+      <c r="P24" s="39">
         <f>P23/200</f>
         <v>20.350000000000001</v>
       </c>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="33">
+      <c r="Q24" s="40"/>
+      <c r="R24" s="38">
         <f>R23/50</f>
         <v>0</v>
       </c>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33">
+      <c r="S24" s="38"/>
+      <c r="T24" s="38">
         <f>T23/8</f>
         <v>0</v>
       </c>
-      <c r="U24" s="33"/>
-      <c r="V24" s="37">
+      <c r="U24" s="38"/>
+      <c r="V24" s="42">
         <f>SUM(D24:S24)</f>
         <v>178.23749999999998</v>
       </c>
-      <c r="W24" s="38"/>
+      <c r="W24" s="43"/>
     </row>
     <row r="25" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="21">
@@ -3154,54 +3222,54 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
-      <c r="V26" s="31">
+      <c r="V26" s="36">
         <f>W25-V25</f>
         <v>9377</v>
       </c>
-      <c r="W26" s="32"/>
+      <c r="W26" s="37"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -3233,8 +3301,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P23:Q23"/>
@@ -3254,6 +3320,8 @@
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3263,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3333,168 +3401,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="46"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="44" t="s">
+      <c r="O7" s="45"/>
+      <c r="P7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="40" t="s">
+      <c r="Q7" s="51"/>
+      <c r="R7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40" t="s">
+      <c r="S7" s="45"/>
+      <c r="T7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="41" t="s">
+      <c r="U7" s="45"/>
+      <c r="V7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="41" t="s">
+      <c r="W7" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3549,8 +3617,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -4239,51 +4307,51 @@
       <c r="C26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="44">
         <f>SUM(D9:D25)-SUM(E9:E25)</f>
         <v>571</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39">
+      <c r="E26" s="44"/>
+      <c r="F26" s="44">
         <f>SUM(F9:F25)-SUM(G9:G25)</f>
         <v>47</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39">
+      <c r="G26" s="44"/>
+      <c r="H26" s="44">
         <f>SUM(H9:H25)-SUM(I9:I25)</f>
         <v>14</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39">
+      <c r="I26" s="44"/>
+      <c r="J26" s="44">
         <f>SUM(J9:J25)-SUM(K9:K25)</f>
         <v>14</v>
       </c>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39">
+      <c r="K26" s="44"/>
+      <c r="L26" s="44">
         <f>SUM(L9:L25)-SUM(M9:M25)</f>
         <v>46</v>
       </c>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39">
+      <c r="M26" s="44"/>
+      <c r="N26" s="44">
         <f>SUM(N9:N25)-SUM(O9:O25)</f>
         <v>4330</v>
       </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39">
+      <c r="O26" s="44"/>
+      <c r="P26" s="44">
         <f>SUM(P9:P25)-SUM(Q9:Q25)</f>
         <v>3850</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39">
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44">
         <f>SUM(R9:R25)-SUM(S9:S25)</f>
         <v>1</v>
       </c>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39">
+      <c r="S26" s="44"/>
+      <c r="T26" s="44">
         <f>SUM(T9:T25)-SUM(U9:U25)</f>
         <v>87</v>
       </c>
-      <c r="U26" s="39"/>
+      <c r="U26" s="44"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
@@ -4293,70 +4361,70 @@
       <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="38">
         <f>D26/6</f>
         <v>95.166666666666671</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33">
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38">
         <f>L26/16</f>
         <v>2.875</v>
       </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33">
+      <c r="M27" s="38"/>
+      <c r="N27" s="38">
         <f>N26/150</f>
         <v>28.866666666666667</v>
       </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="34">
+      <c r="O27" s="38"/>
+      <c r="P27" s="39">
         <f>P26/200</f>
         <v>19.25</v>
       </c>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="33">
+      <c r="Q27" s="40"/>
+      <c r="R27" s="38">
         <f>R26/50</f>
         <v>0.02</v>
       </c>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33">
+      <c r="S27" s="38"/>
+      <c r="T27" s="38">
         <f>T26/8</f>
         <v>10.875</v>
       </c>
-      <c r="U27" s="33"/>
-      <c r="V27" s="37">
+      <c r="U27" s="38"/>
+      <c r="V27" s="42">
         <f>SUM(D27:S27)</f>
         <v>146.17833333333334</v>
       </c>
-      <c r="W27" s="38"/>
+      <c r="W27" s="43"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="21">
@@ -4369,54 +4437,54 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
-      <c r="V29" s="31">
+      <c r="V29" s="36">
         <f>W28-V28</f>
         <v>8960</v>
       </c>
-      <c r="W29" s="32"/>
+      <c r="W29" s="37"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -4448,8 +4516,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P26:Q26"/>
@@ -4469,6 +4535,8 @@
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4476,11 +4544,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,168 +4617,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="46"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="44" t="s">
+      <c r="O7" s="45"/>
+      <c r="P7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="40" t="s">
+      <c r="Q7" s="51"/>
+      <c r="R7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40" t="s">
+      <c r="S7" s="45"/>
+      <c r="T7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="41" t="s">
+      <c r="U7" s="45"/>
+      <c r="V7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="41" t="s">
+      <c r="W7" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -4765,8 +4833,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -4848,13 +4916,15 @@
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="U10" s="15">
+        <v>1</v>
+      </c>
       <c r="V10" s="15">
-        <f t="shared" ref="V10:V36" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
-        <v>1</v>
+        <f t="shared" ref="V10:V51" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
+        <v>2</v>
       </c>
       <c r="W10" s="15">
-        <f t="shared" ref="W10:W36" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10</f>
+        <f t="shared" ref="W10:W51" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10</f>
         <v>0</v>
       </c>
     </row>
@@ -4998,12 +5068,14 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
+      <c r="S14" s="15">
+        <v>2</v>
+      </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W14" s="15">
         <f t="shared" si="1"/>
@@ -5052,15 +5124,2052 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="16">
+        <v>44080</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16">
         <v>44081</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>41</v>
       </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15">
+        <v>6</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16">
+        <v>44082</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15">
+        <v>2</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16">
+        <v>44082</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15">
+        <v>100</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="15">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16">
+        <v>44082</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15">
+        <v>2</v>
+      </c>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16">
+        <v>44082</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15">
+        <v>7</v>
+      </c>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15">
+        <v>3</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16">
+        <v>44082</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15">
+        <v>2</v>
+      </c>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16">
+        <v>44082</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15">
+        <v>1</v>
+      </c>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16">
+        <v>44082</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15">
+        <v>2</v>
+      </c>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15">
+        <v>2</v>
+      </c>
+      <c r="V24" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16">
+        <v>44087</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
+        <v>2</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15">
+        <v>1</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15">
+        <v>100</v>
+      </c>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15">
+        <v>1</v>
+      </c>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15">
+        <v>1</v>
+      </c>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16">
+        <v>44087</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15">
+        <v>1</v>
+      </c>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15">
+        <v>1</v>
+      </c>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16">
+        <v>44087</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15">
+        <v>1</v>
+      </c>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16">
+        <v>44087</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15">
+        <v>1</v>
+      </c>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15">
+        <v>2</v>
+      </c>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16">
+        <v>44087</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16">
+        <v>44092</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15">
+        <v>1</v>
+      </c>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16">
+        <v>44092</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15">
+        <v>1</v>
+      </c>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30">
+        <v>44096</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29">
+        <v>2</v>
+      </c>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29">
+        <v>3</v>
+      </c>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30">
+        <v>44098</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29">
+        <v>1</v>
+      </c>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30">
+        <v>44103</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29">
+        <f>5*6</f>
+        <v>30</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29">
+        <v>3</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29">
+        <v>500</v>
+      </c>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29">
+        <v>3</v>
+      </c>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30">
+        <v>44118</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29">
+        <v>12</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29">
+        <v>6</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29">
+        <v>4</v>
+      </c>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29">
+        <v>1</v>
+      </c>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29">
+        <v>1</v>
+      </c>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30">
+        <v>44118</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29">
+        <v>3</v>
+      </c>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29">
+        <v>3</v>
+      </c>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30">
+        <v>44113</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29">
+        <v>12</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29">
+        <v>1</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30">
+        <v>44124</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29">
+        <f>3*6</f>
+        <v>18</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30">
+        <v>44128</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29">
+        <f>6*5</f>
+        <v>30</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29">
+        <v>1</v>
+      </c>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29">
+        <v>30</v>
+      </c>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29">
+        <v>3</v>
+      </c>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29">
+        <v>5</v>
+      </c>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30">
+        <v>44128</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29">
+        <v>1</v>
+      </c>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29">
+        <v>3</v>
+      </c>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29">
+        <v>3</v>
+      </c>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30">
+        <v>44134</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29">
+        <v>3</v>
+      </c>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29">
+        <v>3</v>
+      </c>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30">
+        <v>44138</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29">
+        <v>1</v>
+      </c>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29">
+        <v>1</v>
+      </c>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30">
+        <v>44138</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29">
+        <v>1</v>
+      </c>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30">
+        <v>44142</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29">
+        <f>3*6</f>
+        <v>18</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29">
+        <v>6</v>
+      </c>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29">
+        <v>6</v>
+      </c>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30">
+        <v>44143</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29">
+        <v>1</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29">
+        <v>1</v>
+      </c>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30">
+        <v>44145</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29">
+        <v>1</v>
+      </c>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29">
+        <v>1</v>
+      </c>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30">
+        <v>44148</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29">
+        <f>6*5</f>
+        <v>30</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29">
+        <v>5</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29">
+        <v>1</v>
+      </c>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29">
+        <v>250</v>
+      </c>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29">
+        <v>2</v>
+      </c>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29">
+        <v>2</v>
+      </c>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30">
+        <v>44149</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29">
+        <v>2</v>
+      </c>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29">
+        <v>1</v>
+      </c>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30">
+        <v>44154</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29">
+        <v>12</v>
+      </c>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29">
+        <v>1</v>
+      </c>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29">
+        <v>1</v>
+      </c>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29">
+        <v>1</v>
+      </c>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30">
+        <v>44165</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29">
+        <v>1</v>
+      </c>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29">
+        <v>1</v>
+      </c>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26">
+        <v>44165</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25">
+        <v>6</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25">
+        <v>1</v>
+      </c>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25">
+        <v>1</v>
+      </c>
+      <c r="V51" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="W51" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="44">
+        <f>SUM(D9:D51)-SUM(E9:E51)</f>
+        <v>390</v>
+      </c>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44">
+        <f>SUM(F9:F51)-SUM(G9:G51)</f>
+        <v>19</v>
+      </c>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44">
+        <f>SUM(H9:H51)-SUM(I9:I51)</f>
+        <v>8</v>
+      </c>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44">
+        <f>SUM(J9:J51)-SUM(K9:K51)</f>
+        <v>14</v>
+      </c>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44">
+        <f>SUM(L9:L51)-SUM(M9:M51)</f>
+        <v>40</v>
+      </c>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44">
+        <f>SUM(N9:N51)-SUM(O9:O51)</f>
+        <v>4270</v>
+      </c>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44">
+        <f>SUM(P9:P51)-SUM(Q9:Q51)</f>
+        <v>3000</v>
+      </c>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44">
+        <f>SUM(R9:R51)-SUM(S9:S51)</f>
+        <v>51</v>
+      </c>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44">
+        <f>SUM(T9:T51)-SUM(U9:U51)</f>
+        <v>37</v>
+      </c>
+      <c r="U52" s="44"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="38">
+        <f>D52/6</f>
+        <v>65</v>
+      </c>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38">
+        <f>L52/16</f>
+        <v>2.5</v>
+      </c>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38">
+        <f>N52/150</f>
+        <v>28.466666666666665</v>
+      </c>
+      <c r="O53" s="38"/>
+      <c r="P53" s="39">
+        <f>P52/200</f>
+        <v>15</v>
+      </c>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="38">
+        <f>R52/50</f>
+        <v>1.02</v>
+      </c>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38">
+        <f>T52/8</f>
+        <v>4.625</v>
+      </c>
+      <c r="U53" s="38"/>
+      <c r="V53" s="42">
+        <f>SUM(D53:S53)</f>
+        <v>111.98666666666666</v>
+      </c>
+      <c r="W53" s="43"/>
+    </row>
+    <row r="54" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="21">
+        <f>SUM(V9:V51)</f>
+        <v>82.5</v>
+      </c>
+      <c r="W54" s="21">
+        <f>SUM(W9:W51)</f>
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="36">
+        <f>W54-V54</f>
+        <v>8977.5</v>
+      </c>
+      <c r="W55" s="37"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53">
+        <v>19</v>
+      </c>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53">
+        <v>8</v>
+      </c>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53">
+        <v>51</v>
+      </c>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53">
+        <v>37</v>
+      </c>
+      <c r="U56" s="53"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D57" s="35"/>
+      <c r="M57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M58" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M59" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="A54:S54"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="3" customWidth="1"/>
+    <col min="15" max="17" width="7" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="33"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="45"/>
+      <c r="P7" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="45"/>
+      <c r="V7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12">
+        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15">
+        <f t="shared" ref="V10:V51" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" ref="W10:W51" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15">
-        <v>6</v>
-      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -5077,29 +7186,17 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W16" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="16">
-        <v>44082</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="15">
-        <v>2</v>
-      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -5116,7 +7213,7 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="15">
         <f t="shared" si="1"/>
@@ -5125,12 +7222,8 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="16">
-        <v>44082</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -5145,9 +7238,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="15">
-        <v>100</v>
-      </c>
+      <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -5157,17 +7248,13 @@
       </c>
       <c r="W18" s="15">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="16">
-        <v>44082</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -5183,14 +7270,12 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="15">
-        <v>2</v>
-      </c>
+      <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="15">
         <f t="shared" si="1"/>
@@ -5199,12 +7284,8 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="16">
-        <v>44082</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -5220,14 +7301,12 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="15">
-        <v>7</v>
-      </c>
+      <c r="S20" s="15"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W20" s="15">
         <f t="shared" si="1"/>
@@ -5236,12 +7315,8 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="16">
-        <v>44082</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -5257,22 +7332,22 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="15">
-        <v>2</v>
-      </c>
+      <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
+      <c r="V21" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="16">
-        <v>44082</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -5288,9 +7363,7 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
-      <c r="S22" s="15">
-        <v>1</v>
-      </c>
+      <c r="S22" s="15"/>
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
@@ -5298,12 +7371,8 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="16">
-        <v>44082</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -5321,26 +7390,14 @@
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="15">
-        <v>2</v>
-      </c>
-      <c r="V23" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="W23" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="16">
-        <v>44087</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -5354,28 +7411,24 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15">
-        <v>100</v>
-      </c>
+      <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
-      <c r="S24" s="15">
-        <v>1</v>
-      </c>
+      <c r="S24" s="15"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="15">
-        <v>1</v>
-      </c>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="16">
-        <v>44087</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -5391,24 +7444,16 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="15">
-        <v>1</v>
-      </c>
+      <c r="S25" s="15"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="15">
-        <v>1</v>
-      </c>
+      <c r="U25" s="15"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="16">
-        <v>44087</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -5424,9 +7469,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
-      <c r="S26" s="15">
-        <v>1</v>
-      </c>
+      <c r="S26" s="15"/>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
@@ -5434,12 +7477,8 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="16">
-        <v>44087</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5455,30 +7494,20 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
-      <c r="S27" s="15">
-        <v>1</v>
-      </c>
+      <c r="S27" s="15"/>
       <c r="T27" s="15"/>
-      <c r="U27" s="15">
-        <v>2</v>
-      </c>
+      <c r="U27" s="15"/>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16">
-        <v>44087</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="15">
-        <v>1</v>
-      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -5498,12 +7527,8 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="16">
-        <v>44092</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -5521,20 +7546,14 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
-      <c r="U29" s="15">
-        <v>1</v>
-      </c>
+      <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="16">
-        <v>44092</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -5550,73 +7569,53 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="15">
-        <v>1</v>
-      </c>
+      <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="15">
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30">
-        <v>44096</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29">
-        <v>2</v>
-      </c>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29">
-        <v>3</v>
-      </c>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="30">
-        <v>44118</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>81</v>
-      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="29">
-        <v>12</v>
-      </c>
+      <c r="E32" s="29"/>
       <c r="F32" s="29"/>
-      <c r="G32" s="29">
-        <v>1</v>
-      </c>
+      <c r="G32" s="29"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="29">
-        <v>4</v>
-      </c>
+      <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
@@ -5626,22 +7625,16 @@
       <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
-      <c r="S32" s="29">
-        <v>1</v>
-      </c>
+      <c r="S32" s="29"/>
       <c r="T32" s="29"/>
-      <c r="U32" s="29">
-        <v>1</v>
-      </c>
+      <c r="U32" s="29"/>
       <c r="V32" s="29"/>
       <c r="W32" s="29"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="29" t="s">
-        <v>82</v>
-      </c>
+      <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -5657,32 +7650,20 @@
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
-      <c r="S33" s="29">
-        <v>3</v>
-      </c>
+      <c r="S33" s="29"/>
       <c r="T33" s="29"/>
-      <c r="U33" s="29">
-        <v>3</v>
-      </c>
+      <c r="U33" s="29"/>
       <c r="V33" s="29"/>
       <c r="W33" s="29"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="30">
-        <v>44113</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>83</v>
-      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="29">
-        <v>12</v>
-      </c>
+      <c r="E34" s="29"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="29">
-        <v>1</v>
-      </c>
+      <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
@@ -5726,269 +7707,601 @@
       <c r="W35" s="29"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W36" s="25">
+      <c r="W51" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19" t="s">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="39">
-        <f>SUM(D9:D36)-SUM(E9:E36)</f>
-        <v>534</v>
-      </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39">
-        <f>SUM(F9:F36)-SUM(G9:G36)</f>
-        <v>40</v>
-      </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39">
-        <f>SUM(H9:H36)-SUM(I9:I36)</f>
-        <v>9</v>
-      </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39">
-        <f>SUM(J9:J36)-SUM(K9:K36)</f>
-        <v>14</v>
-      </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39">
-        <f>SUM(L9:L36)-SUM(M9:M36)</f>
-        <v>45</v>
-      </c>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39">
-        <f>SUM(N9:N36)-SUM(O9:O36)</f>
-        <v>4300</v>
-      </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39">
-        <f>SUM(P9:P36)-SUM(Q9:Q36)</f>
-        <v>3750</v>
-      </c>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39">
-        <f>SUM(R9:R36)-SUM(S9:S36)</f>
-        <v>78</v>
-      </c>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39">
-        <f>SUM(T9:T36)-SUM(U9:U36)</f>
-        <v>69</v>
-      </c>
-      <c r="U37" s="39"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19" t="s">
+      <c r="D52" s="44">
+        <f>SUM(D9:D51)-SUM(E9:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44">
+        <f>SUM(F9:F51)-SUM(G9:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44">
+        <f>SUM(H9:H51)-SUM(I9:I51)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44">
+        <f>SUM(J9:J51)-SUM(K9:K51)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44">
+        <f>SUM(L9:L51)-SUM(M9:M51)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44">
+        <f>SUM(N9:N51)-SUM(O9:O51)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44">
+        <f>SUM(P9:P51)-SUM(Q9:Q51)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44">
+        <f>SUM(R9:R51)-SUM(S9:S51)</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44">
+        <f>SUM(T9:T51)-SUM(U9:U51)</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="44"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="33">
-        <f>D37/6</f>
-        <v>89</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33">
-        <f>L37/16</f>
-        <v>2.8125</v>
-      </c>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33">
-        <f>N37/150</f>
-        <v>28.666666666666668</v>
-      </c>
-      <c r="O38" s="33"/>
-      <c r="P38" s="34">
-        <f>P37/200</f>
-        <v>18.75</v>
-      </c>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="33">
-        <f>R37/50</f>
-        <v>1.56</v>
-      </c>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33">
-        <f>T37/8</f>
-        <v>8.625</v>
-      </c>
-      <c r="U38" s="33"/>
-      <c r="V38" s="37">
-        <f>SUM(D38:S38)</f>
-        <v>140.78916666666669</v>
-      </c>
-      <c r="W38" s="38"/>
-    </row>
-    <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="D53" s="38">
+        <f>D52/6</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38">
+        <f>L52/16</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38">
+        <f>N52/150</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="38"/>
+      <c r="P53" s="39">
+        <f>P52/200</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="38">
+        <f>R52/50</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38">
+        <f>T52/8</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="38"/>
+      <c r="V53" s="42">
+        <f>SUM(D53:S53)</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="43"/>
+    </row>
+    <row r="54" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="21">
-        <f>SUM(V9:V36)</f>
-        <v>65</v>
-      </c>
-      <c r="W39" s="21">
-        <f>SUM(W9:W36)</f>
-        <v>9060</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="21">
+        <f>SUM(V9:V51)</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="21">
+        <f>SUM(W9:W51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="31">
-        <f>W39-V39</f>
-        <v>8995</v>
-      </c>
-      <c r="W40" s="32"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I42" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I43" s="3">
-        <f>13-9</f>
-        <v>4</v>
-      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="36">
+        <f>W54-V54</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="37"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D57" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="A39:S39"/>
-    <mergeCell ref="A40:S40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A4:W4"/>
     <mergeCell ref="A5:S5"/>
@@ -5997,12 +8310,47 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:W6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="A54:S54"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T6" sheetId="1" r:id="rId1"/>
@@ -651,19 +651,37 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -675,41 +693,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -994,9 +994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32:M32"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,168 +1065,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="40"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="49" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="45" t="s">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="37"/>
+      <c r="T7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="46" t="s">
+      <c r="U7" s="37"/>
+      <c r="V7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="46" t="s">
+      <c r="W7" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1281,8 +1281,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -2003,51 +2003,51 @@
       <c r="C27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="46">
         <f>SUM(D9:D26)-SUM(E9:E26)</f>
         <v>858</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44">
+      <c r="E27" s="46"/>
+      <c r="F27" s="46">
         <f>SUM(F9:F26)-SUM(G9:G26)</f>
         <v>74</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44">
+      <c r="G27" s="46"/>
+      <c r="H27" s="46">
         <f>SUM(H9:H26)-SUM(I9:I26)</f>
         <v>15</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44">
+      <c r="I27" s="46"/>
+      <c r="J27" s="46">
         <f>SUM(J9:J26)-SUM(K9:K26)</f>
         <v>16</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44">
+      <c r="K27" s="46"/>
+      <c r="L27" s="46">
         <f>SUM(L9:L26)-SUM(M9:M26)</f>
         <v>52.5</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44">
+      <c r="M27" s="46"/>
+      <c r="N27" s="46">
         <f>SUM(N9:N26)-SUM(O9:O26)</f>
         <v>4408</v>
       </c>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44">
+      <c r="O27" s="46"/>
+      <c r="P27" s="46">
         <f>SUM(P9:P26)-SUM(Q9:Q26)</f>
         <v>4100</v>
       </c>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44">
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46">
         <f>SUM(R9:R26)-SUM(S9:S26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44">
+      <c r="S27" s="46"/>
+      <c r="T27" s="46">
         <f>SUM(T9:T26)-SUM(U9:U26)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="44"/>
+      <c r="U27" s="46"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
@@ -2057,70 +2057,70 @@
       <c r="C28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="43">
         <f>D27/6</f>
         <v>143</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38">
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43">
         <f>L27/16</f>
         <v>3.28125</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38">
+      <c r="M28" s="43"/>
+      <c r="N28" s="43">
         <f>N27/150</f>
         <v>29.386666666666667</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39">
+      <c r="O28" s="43"/>
+      <c r="P28" s="54">
         <f>P27/200</f>
         <v>20.5</v>
       </c>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="38">
+      <c r="Q28" s="55"/>
+      <c r="R28" s="43">
         <f>R27/50</f>
         <v>0</v>
       </c>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38">
+      <c r="S28" s="43"/>
+      <c r="T28" s="43">
         <f>T27/8</f>
         <v>0</v>
       </c>
-      <c r="U28" s="38"/>
-      <c r="V28" s="42">
+      <c r="U28" s="43"/>
+      <c r="V28" s="48">
         <f>SUM(D28:S28)</f>
         <v>196.16791666666666</v>
       </c>
-      <c r="W28" s="43"/>
+      <c r="W28" s="49"/>
     </row>
     <row r="29" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="21">
@@ -2133,65 +2133,99 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
-      <c r="V30" s="36">
+      <c r="V30" s="52">
         <f>W29-V29</f>
         <v>9523.5</v>
       </c>
-      <c r="W30" s="37"/>
+      <c r="W30" s="53"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J32" s="52" t="s">
+      <c r="J32" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="T31:U31"/>
@@ -2208,40 +2242,6 @@
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2322,168 +2322,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="40"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="49" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="45" t="s">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="37"/>
+      <c r="T7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="46" t="s">
+      <c r="U7" s="37"/>
+      <c r="V7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="46" t="s">
+      <c r="W7" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2538,8 +2538,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -3092,51 +3092,51 @@
       <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="46">
         <f>SUM(D9:D22)-SUM(E9:E22)</f>
         <v>752</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>SUM(F9:F22)-SUM(G9:G22)</f>
         <v>68</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44">
+      <c r="G23" s="46"/>
+      <c r="H23" s="46">
         <f>SUM(H9:H22)-SUM(I9:I22)</f>
         <v>15</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44">
+      <c r="I23" s="46"/>
+      <c r="J23" s="46">
         <f>SUM(J9:J22)-SUM(K9:K22)</f>
         <v>16</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44">
+      <c r="K23" s="46"/>
+      <c r="L23" s="46">
         <f>SUM(L9:L22)-SUM(M9:M22)</f>
         <v>51</v>
       </c>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44">
+      <c r="M23" s="46"/>
+      <c r="N23" s="46">
         <f>SUM(N9:N22)-SUM(O9:O22)</f>
         <v>4405</v>
       </c>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44">
+      <c r="O23" s="46"/>
+      <c r="P23" s="46">
         <f>SUM(P9:P22)-SUM(Q9:Q22)</f>
         <v>4070</v>
       </c>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44">
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46">
         <f>SUM(R9:R22)-SUM(S9:S22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44">
+      <c r="S23" s="46"/>
+      <c r="T23" s="46">
         <f>SUM(T9:T22)-SUM(U9:U22)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="44"/>
+      <c r="U23" s="46"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
     </row>
@@ -3146,70 +3146,70 @@
       <c r="C24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="43">
         <f>D23/6</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43">
         <f>L23/16</f>
         <v>3.1875</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38">
+      <c r="M24" s="43"/>
+      <c r="N24" s="43">
         <f>N23/150</f>
         <v>29.366666666666667</v>
       </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="39">
+      <c r="O24" s="43"/>
+      <c r="P24" s="54">
         <f>P23/200</f>
         <v>20.350000000000001</v>
       </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="38">
+      <c r="Q24" s="55"/>
+      <c r="R24" s="43">
         <f>R23/50</f>
         <v>0</v>
       </c>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38">
+      <c r="S24" s="43"/>
+      <c r="T24" s="43">
         <f>T23/8</f>
         <v>0</v>
       </c>
-      <c r="U24" s="38"/>
-      <c r="V24" s="42">
+      <c r="U24" s="43"/>
+      <c r="V24" s="48">
         <f>SUM(D24:S24)</f>
         <v>178.23749999999998</v>
       </c>
-      <c r="W24" s="43"/>
+      <c r="W24" s="49"/>
     </row>
     <row r="25" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="21">
@@ -3222,90 +3222,57 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
-      <c r="V26" s="36">
+      <c r="V26" s="52">
         <f>W25-V25</f>
         <v>9377</v>
       </c>
-      <c r="W26" s="37"/>
+      <c r="W26" s="53"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A26:S26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A4:W4"/>
     <mergeCell ref="A5:S5"/>
@@ -3322,6 +3289,39 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A26:S26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3401,168 +3401,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="40"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="49" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="45" t="s">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="37"/>
+      <c r="T7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="46" t="s">
+      <c r="U7" s="37"/>
+      <c r="V7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="46" t="s">
+      <c r="W7" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3617,8 +3617,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -4307,51 +4307,51 @@
       <c r="C26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="46">
         <f>SUM(D9:D25)-SUM(E9:E25)</f>
         <v>571</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44">
+      <c r="E26" s="46"/>
+      <c r="F26" s="46">
         <f>SUM(F9:F25)-SUM(G9:G25)</f>
         <v>47</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44">
+      <c r="G26" s="46"/>
+      <c r="H26" s="46">
         <f>SUM(H9:H25)-SUM(I9:I25)</f>
         <v>14</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44">
+      <c r="I26" s="46"/>
+      <c r="J26" s="46">
         <f>SUM(J9:J25)-SUM(K9:K25)</f>
         <v>14</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44">
+      <c r="K26" s="46"/>
+      <c r="L26" s="46">
         <f>SUM(L9:L25)-SUM(M9:M25)</f>
         <v>46</v>
       </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44">
+      <c r="M26" s="46"/>
+      <c r="N26" s="46">
         <f>SUM(N9:N25)-SUM(O9:O25)</f>
         <v>4330</v>
       </c>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44">
+      <c r="O26" s="46"/>
+      <c r="P26" s="46">
         <f>SUM(P9:P25)-SUM(Q9:Q25)</f>
         <v>3850</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44">
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46">
         <f>SUM(R9:R25)-SUM(S9:S25)</f>
         <v>1</v>
       </c>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44">
+      <c r="S26" s="46"/>
+      <c r="T26" s="46">
         <f>SUM(T9:T25)-SUM(U9:U25)</f>
         <v>87</v>
       </c>
-      <c r="U26" s="44"/>
+      <c r="U26" s="46"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
@@ -4361,70 +4361,70 @@
       <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="43">
         <f>D26/6</f>
         <v>95.166666666666671</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38">
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43">
         <f>L26/16</f>
         <v>2.875</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38">
+      <c r="M27" s="43"/>
+      <c r="N27" s="43">
         <f>N26/150</f>
         <v>28.866666666666667</v>
       </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="39">
+      <c r="O27" s="43"/>
+      <c r="P27" s="54">
         <f>P26/200</f>
         <v>19.25</v>
       </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="38">
+      <c r="Q27" s="55"/>
+      <c r="R27" s="43">
         <f>R26/50</f>
         <v>0.02</v>
       </c>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38">
+      <c r="S27" s="43"/>
+      <c r="T27" s="43">
         <f>T26/8</f>
         <v>10.875</v>
       </c>
-      <c r="U27" s="38"/>
-      <c r="V27" s="42">
+      <c r="U27" s="43"/>
+      <c r="V27" s="48">
         <f>SUM(D27:S27)</f>
         <v>146.17833333333334</v>
       </c>
-      <c r="W27" s="43"/>
+      <c r="W27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="21">
@@ -4437,90 +4437,57 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
-      <c r="V29" s="36">
+      <c r="V29" s="52">
         <f>W28-V28</f>
         <v>8960</v>
       </c>
-      <c r="W29" s="37"/>
+      <c r="W29" s="53"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="A28:S28"/>
-    <mergeCell ref="A29:S29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A4:W4"/>
     <mergeCell ref="A5:S5"/>
@@ -4537,6 +4504,39 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="A29:S29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4546,9 +4546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4617,168 +4617,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="40"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="49" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="45" t="s">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="37"/>
+      <c r="T7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="46" t="s">
+      <c r="U7" s="37"/>
+      <c r="V7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="46" t="s">
+      <c r="W7" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -4833,8 +4833,8 @@
       <c r="U8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -6392,51 +6392,51 @@
       <c r="C52" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="46">
         <f>SUM(D9:D51)-SUM(E9:E51)</f>
         <v>390</v>
       </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44">
+      <c r="E52" s="46"/>
+      <c r="F52" s="46">
         <f>SUM(F9:F51)-SUM(G9:G51)</f>
         <v>19</v>
       </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44">
+      <c r="G52" s="46"/>
+      <c r="H52" s="46">
         <f>SUM(H9:H51)-SUM(I9:I51)</f>
         <v>8</v>
       </c>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44">
+      <c r="I52" s="46"/>
+      <c r="J52" s="46">
         <f>SUM(J9:J51)-SUM(K9:K51)</f>
         <v>14</v>
       </c>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44">
+      <c r="K52" s="46"/>
+      <c r="L52" s="46">
         <f>SUM(L9:L51)-SUM(M9:M51)</f>
         <v>40</v>
       </c>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44">
+      <c r="M52" s="46"/>
+      <c r="N52" s="46">
         <f>SUM(N9:N51)-SUM(O9:O51)</f>
         <v>4270</v>
       </c>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44">
+      <c r="O52" s="46"/>
+      <c r="P52" s="46">
         <f>SUM(P9:P51)-SUM(Q9:Q51)</f>
         <v>3000</v>
       </c>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44">
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46">
         <f>SUM(R9:R51)-SUM(S9:S51)</f>
         <v>51</v>
       </c>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44">
+      <c r="S52" s="46"/>
+      <c r="T52" s="46">
         <f>SUM(T9:T51)-SUM(U9:U51)</f>
         <v>37</v>
       </c>
-      <c r="U52" s="44"/>
+      <c r="U52" s="46"/>
       <c r="V52" s="14"/>
       <c r="W52" s="14"/>
     </row>
@@ -6446,70 +6446,70 @@
       <c r="C53" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="43">
         <f>D52/6</f>
         <v>65</v>
       </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38">
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43">
         <f>L52/16</f>
         <v>2.5</v>
       </c>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38">
+      <c r="M53" s="43"/>
+      <c r="N53" s="43">
         <f>N52/150</f>
         <v>28.466666666666665</v>
       </c>
-      <c r="O53" s="38"/>
-      <c r="P53" s="39">
+      <c r="O53" s="43"/>
+      <c r="P53" s="54">
         <f>P52/200</f>
         <v>15</v>
       </c>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="38">
+      <c r="Q53" s="55"/>
+      <c r="R53" s="43">
         <f>R52/50</f>
         <v>1.02</v>
       </c>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38">
+      <c r="S53" s="43"/>
+      <c r="T53" s="43">
         <f>T52/8</f>
         <v>4.625</v>
       </c>
-      <c r="U53" s="38"/>
-      <c r="V53" s="42">
+      <c r="U53" s="43"/>
+      <c r="V53" s="48">
         <f>SUM(D53:S53)</f>
         <v>111.98666666666666</v>
       </c>
-      <c r="W53" s="43"/>
+      <c r="W53" s="49"/>
     </row>
     <row r="54" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
       <c r="V54" s="21">
@@ -6522,62 +6522,62 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
       <c r="T55" s="22"/>
       <c r="U55" s="22"/>
-      <c r="V55" s="36">
+      <c r="V55" s="52">
         <f>W54-V54</f>
         <v>8977.5</v>
       </c>
-      <c r="W55" s="37"/>
+      <c r="W55" s="53"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53">
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38">
         <v>19</v>
       </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53">
+      <c r="G56" s="38"/>
+      <c r="H56" s="38">
         <v>8</v>
       </c>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53">
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38">
         <v>51</v>
       </c>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53">
+      <c r="S56" s="38"/>
+      <c r="T56" s="38">
         <v>37</v>
       </c>
-      <c r="U56" s="53"/>
+      <c r="U56" s="38"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D57" s="35"/>
@@ -6600,39 +6600,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="A54:S54"/>
-    <mergeCell ref="A55:S55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A4:W4"/>
     <mergeCell ref="A5:S5"/>
@@ -6649,6 +6616,39 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="A54:S54"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6658,7 +6658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -6728,168 +6728,168 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
       <c r="V5" s="31"/>
       <c r="W5" s="31"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="40"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="49" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="45" t="s">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="37"/>
+      <c r="T7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="46" t="s">
+      <c r="U7" s="37"/>
+      <c r="V7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="46" t="s">
+      <c r="W7" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="32" t="s">
         <v>7</v>
       </c>
@@ -6944,8 +6944,8 @@
       <c r="U8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -8118,51 +8118,51 @@
       <c r="C52" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="46">
         <f>SUM(D9:D51)-SUM(E9:E51)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44">
+      <c r="E52" s="46"/>
+      <c r="F52" s="46">
         <f>SUM(F9:F51)-SUM(G9:G51)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44">
+      <c r="G52" s="46"/>
+      <c r="H52" s="46">
         <f>SUM(H9:H51)-SUM(I9:I51)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44">
+      <c r="I52" s="46"/>
+      <c r="J52" s="46">
         <f>SUM(J9:J51)-SUM(K9:K51)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44">
+      <c r="K52" s="46"/>
+      <c r="L52" s="46">
         <f>SUM(L9:L51)-SUM(M9:M51)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44">
+      <c r="M52" s="46"/>
+      <c r="N52" s="46">
         <f>SUM(N9:N51)-SUM(O9:O51)</f>
         <v>0</v>
       </c>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44">
+      <c r="O52" s="46"/>
+      <c r="P52" s="46">
         <f>SUM(P9:P51)-SUM(Q9:Q51)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44">
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46">
         <f>SUM(R9:R51)-SUM(S9:S51)</f>
         <v>0</v>
       </c>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44">
+      <c r="S52" s="46"/>
+      <c r="T52" s="46">
         <f>SUM(T9:T51)-SUM(U9:U51)</f>
         <v>0</v>
       </c>
-      <c r="U52" s="44"/>
+      <c r="U52" s="46"/>
       <c r="V52" s="14"/>
       <c r="W52" s="14"/>
     </row>
@@ -8172,70 +8172,70 @@
       <c r="C53" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="43">
         <f>D52/6</f>
         <v>0</v>
       </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38">
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43">
         <f>L52/16</f>
         <v>0</v>
       </c>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38">
+      <c r="M53" s="43"/>
+      <c r="N53" s="43">
         <f>N52/150</f>
         <v>0</v>
       </c>
-      <c r="O53" s="38"/>
-      <c r="P53" s="39">
+      <c r="O53" s="43"/>
+      <c r="P53" s="54">
         <f>P52/200</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="38">
+      <c r="Q53" s="55"/>
+      <c r="R53" s="43">
         <f>R52/50</f>
         <v>0</v>
       </c>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38">
+      <c r="S53" s="43"/>
+      <c r="T53" s="43">
         <f>T52/8</f>
         <v>0</v>
       </c>
-      <c r="U53" s="38"/>
-      <c r="V53" s="42">
+      <c r="U53" s="43"/>
+      <c r="V53" s="48">
         <f>SUM(D53:S53)</f>
         <v>0</v>
       </c>
-      <c r="W53" s="43"/>
+      <c r="W53" s="49"/>
     </row>
     <row r="54" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
       <c r="V54" s="21">
@@ -8248,96 +8248,60 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
       <c r="T55" s="34"/>
       <c r="U55" s="34"/>
-      <c r="V55" s="36">
+      <c r="V55" s="52">
         <f>W54-V54</f>
         <v>0</v>
       </c>
-      <c r="W55" s="37"/>
+      <c r="W55" s="53"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D57" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:W6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
     <mergeCell ref="P56:Q56"/>
     <mergeCell ref="R56:S56"/>
     <mergeCell ref="T56:U56"/>
@@ -8351,6 +8315,42 @@
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:W6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/KHO VẬT TƯ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="T6_20" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="123">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -374,6 +374,27 @@
   </si>
   <si>
     <t>Tặng chú Vinh</t>
+  </si>
+  <si>
+    <t>Lợn đất</t>
+  </si>
+  <si>
+    <t>Nhập lợn đất</t>
+  </si>
+  <si>
+    <t>Anh Linh hội chợ</t>
+  </si>
+  <si>
+    <t>ĐL Lào Cai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:102020.VT/PKD. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:112020.VT/PKD. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:122020.VT/PKD. MST: 0108806878</t>
   </si>
 </sst>
 </file>
@@ -441,7 +462,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -621,7 +642,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -629,21 +650,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -652,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,9 +732,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,7 +748,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -756,41 +762,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,23 +796,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,6 +841,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,28 +853,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,7 +1144,7 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
@@ -1209,216 +1212,216 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="56"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="68"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53" t="s">
+      <c r="R7" s="62"/>
+      <c r="S7" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="66" t="s">
+      <c r="T7" s="62"/>
+      <c r="U7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="66" t="s">
+      <c r="V7" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="G8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="38" t="s">
+      <c r="I8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="38" t="s">
+      <c r="M8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="38" t="s">
+      <c r="O8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="38" t="s">
+      <c r="Q8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="38" t="s">
+      <c r="S8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -2118,124 +2121,124 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="61">
         <f>SUM(C9:C26)-SUM(D9:D26)</f>
         <v>858</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62">
+      <c r="D27" s="61"/>
+      <c r="E27" s="61">
         <f>SUM(E9:E26)-SUM(F9:F26)</f>
         <v>74</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62">
+      <c r="F27" s="61"/>
+      <c r="G27" s="61">
         <f>SUM(G9:G26)-SUM(H9:H26)</f>
         <v>15</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62">
+      <c r="H27" s="61"/>
+      <c r="I27" s="61">
         <f>SUM(I9:I26)-SUM(J9:J26)</f>
         <v>16</v>
       </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62">
+      <c r="J27" s="61"/>
+      <c r="K27" s="61">
         <f>SUM(K9:K26)-SUM(L9:L26)</f>
         <v>52.5</v>
       </c>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62">
+      <c r="L27" s="61"/>
+      <c r="M27" s="61">
         <f>SUM(M9:M26)-SUM(N9:N26)</f>
         <v>4408</v>
       </c>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62">
+      <c r="N27" s="61"/>
+      <c r="O27" s="61">
         <f>SUM(O9:O26)-SUM(P9:P26)</f>
         <v>4050</v>
       </c>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62">
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61">
         <f>SUM(Q9:Q26)-SUM(R9:R26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62">
+      <c r="R27" s="61"/>
+      <c r="S27" s="61">
         <f>SUM(S9:S26)-SUM(T9:T26)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="62"/>
+      <c r="T27" s="61"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="56">
         <f>C27/6</f>
         <v>143</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59">
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56">
         <f>K27/16</f>
         <v>3.28125</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59">
+      <c r="L28" s="56"/>
+      <c r="M28" s="56">
         <f>M27/150</f>
         <v>29.386666666666667</v>
       </c>
-      <c r="N28" s="59"/>
-      <c r="O28" s="70">
+      <c r="N28" s="56"/>
+      <c r="O28" s="57">
         <f>O27/200</f>
         <v>20.25</v>
       </c>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="59">
+      <c r="P28" s="58"/>
+      <c r="Q28" s="56">
         <f>Q27/50</f>
         <v>0</v>
       </c>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59">
+      <c r="R28" s="56"/>
+      <c r="S28" s="56">
         <f>S27/8</f>
         <v>0</v>
       </c>
-      <c r="T28" s="59"/>
-      <c r="U28" s="64">
+      <c r="T28" s="56"/>
+      <c r="U28" s="59">
         <f>SUM(C28:R28)</f>
         <v>195.91791666666666</v>
       </c>
-      <c r="V28" s="65"/>
+      <c r="V28" s="60"/>
     </row>
     <row r="29" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
       <c r="U29" s="20">
@@ -2248,60 +2251,93 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="68">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="54">
         <f>V29-U29</f>
         <v>9473.5</v>
       </c>
-      <c r="V30" s="69"/>
+      <c r="V30" s="55"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="A4:V4"/>
     <mergeCell ref="U30:V30"/>
@@ -2318,39 +2354,6 @@
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.38" top="0.52" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2361,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:V26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,216 +2424,216 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="56"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="68"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53" t="s">
+      <c r="R7" s="62"/>
+      <c r="S7" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="66" t="s">
+      <c r="T7" s="62"/>
+      <c r="U7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="66" t="s">
+      <c r="V7" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="G8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="38" t="s">
+      <c r="I8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="38" t="s">
+      <c r="M8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="38" t="s">
+      <c r="O8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="38" t="s">
+      <c r="Q8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="38" t="s">
+      <c r="S8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -3164,124 +3167,124 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="61">
         <f>SUM(C9:C22)-SUM(D9:D22)</f>
         <v>752</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62">
+      <c r="D23" s="61"/>
+      <c r="E23" s="61">
         <f>SUM(E9:E22)-SUM(F9:F22)</f>
         <v>68</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62">
+      <c r="F23" s="61"/>
+      <c r="G23" s="61">
         <f>SUM(G9:G22)-SUM(H9:H22)</f>
         <v>15</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62">
+      <c r="H23" s="61"/>
+      <c r="I23" s="61">
         <f>SUM(I9:I22)-SUM(J9:J22)</f>
         <v>16</v>
       </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62">
+      <c r="J23" s="61"/>
+      <c r="K23" s="61">
         <f>SUM(K9:K22)-SUM(L9:L22)</f>
         <v>51</v>
       </c>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62">
+      <c r="L23" s="61"/>
+      <c r="M23" s="61">
         <f>SUM(M9:M22)-SUM(N9:N22)</f>
         <v>4405</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62">
+      <c r="N23" s="61"/>
+      <c r="O23" s="61">
         <f>SUM(O9:O22)-SUM(P9:P22)</f>
         <v>4000</v>
       </c>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62">
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61">
         <f>SUM(Q9:Q22)-SUM(R9:R22)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62">
+      <c r="R23" s="61"/>
+      <c r="S23" s="61">
         <f>SUM(S9:S22)-SUM(T9:T22)</f>
         <v>0</v>
       </c>
-      <c r="T23" s="62"/>
+      <c r="T23" s="61"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="56">
         <f>C23/6</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56">
         <f>K23/16</f>
         <v>3.1875</v>
       </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59">
+      <c r="L24" s="56"/>
+      <c r="M24" s="56">
         <f>M23/150</f>
         <v>29.366666666666667</v>
       </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="70">
+      <c r="N24" s="56"/>
+      <c r="O24" s="57">
         <f>O23/200</f>
         <v>20</v>
       </c>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="59">
+      <c r="P24" s="58"/>
+      <c r="Q24" s="56">
         <f>Q23/50</f>
         <v>0</v>
       </c>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59">
+      <c r="R24" s="56"/>
+      <c r="S24" s="56">
         <f>S23/8</f>
         <v>0</v>
       </c>
-      <c r="T24" s="59"/>
-      <c r="U24" s="64">
+      <c r="T24" s="56"/>
+      <c r="U24" s="59">
         <f>SUM(C24:R24)</f>
         <v>177.88749999999999</v>
       </c>
-      <c r="V24" s="65"/>
+      <c r="V24" s="60"/>
     </row>
     <row r="25" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
       <c r="U25" s="20">
@@ -3294,54 +3297,86 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="68">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="54">
         <f>V25-U25</f>
         <v>9307</v>
       </c>
-      <c r="V26" s="69"/>
+      <c r="V26" s="55"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="A4:V4"/>
     <mergeCell ref="A5:R5"/>
@@ -3358,38 +3393,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3400,17 +3403,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
-    <col min="3" max="20" width="4.85546875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="3" customWidth="1"/>
+    <col min="3" max="18" width="4.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="3" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -3453,160 +3458,160 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="56"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="68"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53" t="s">
+      <c r="R7" s="62"/>
+      <c r="S7" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="66" t="s">
+      <c r="T7" s="62"/>
+      <c r="U7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="66" t="s">
+      <c r="V7" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
@@ -3661,8 +3666,8 @@
       <c r="T8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -4329,124 +4334,124 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="80"/>
+      <c r="B26" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="82">
         <f>SUM(C9:C25)-SUM(D9:D25)</f>
         <v>571</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62">
+      <c r="D26" s="82"/>
+      <c r="E26" s="82">
         <f>SUM(E9:E25)-SUM(F9:F25)</f>
         <v>47</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62">
+      <c r="F26" s="82"/>
+      <c r="G26" s="82">
         <f>SUM(G9:G25)-SUM(H9:H25)</f>
         <v>14</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62">
+      <c r="H26" s="82"/>
+      <c r="I26" s="82">
         <f>SUM(I9:I25)-SUM(J9:J25)</f>
         <v>14</v>
       </c>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62">
+      <c r="J26" s="82"/>
+      <c r="K26" s="82">
         <f>SUM(K9:K25)-SUM(L9:L25)</f>
         <v>46</v>
       </c>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62">
+      <c r="L26" s="82"/>
+      <c r="M26" s="82">
         <f>SUM(M9:M25)-SUM(N9:N25)</f>
         <v>4330</v>
       </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62">
+      <c r="N26" s="82"/>
+      <c r="O26" s="82">
         <f>SUM(O9:O25)-SUM(P9:P25)</f>
         <v>3700</v>
       </c>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62">
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82">
         <f>SUM(Q9:Q25)-SUM(R9:R25)</f>
         <v>1</v>
       </c>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62">
+      <c r="R26" s="82"/>
+      <c r="S26" s="61">
         <f>SUM(S9:S25)-SUM(T9:T25)</f>
         <v>87</v>
       </c>
-      <c r="T26" s="62"/>
+      <c r="T26" s="61"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="56">
         <f>C26/6</f>
         <v>95.166666666666671</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59">
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56">
         <f>K26/16</f>
         <v>2.875</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59">
+      <c r="L27" s="56"/>
+      <c r="M27" s="56">
         <f>M26/150</f>
         <v>28.866666666666667</v>
       </c>
-      <c r="N27" s="59"/>
-      <c r="O27" s="70">
+      <c r="N27" s="56"/>
+      <c r="O27" s="57">
         <f>O26/200</f>
         <v>18.5</v>
       </c>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="59">
+      <c r="P27" s="58"/>
+      <c r="Q27" s="56">
         <f>Q26/50</f>
         <v>0.02</v>
       </c>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59">
+      <c r="R27" s="56"/>
+      <c r="S27" s="56">
         <f>S26/8</f>
         <v>10.875</v>
       </c>
-      <c r="T27" s="59"/>
-      <c r="U27" s="64">
+      <c r="T27" s="56"/>
+      <c r="U27" s="59">
         <f>SUM(C27:R27)</f>
         <v>145.42833333333334</v>
       </c>
-      <c r="V27" s="65"/>
+      <c r="V27" s="60"/>
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
       <c r="U28" s="20">
@@ -4459,86 +4464,54 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
-      <c r="U29" s="68">
+      <c r="U29" s="54">
         <f>V28-U28</f>
         <v>8810</v>
       </c>
-      <c r="V29" s="69"/>
+      <c r="V29" s="55"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="A4:V4"/>
     <mergeCell ref="U27:V27"/>
@@ -4555,8 +4528,41 @@
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.26" right="0.35" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4565,8 +4571,8 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <pane ySplit="8" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4574,8 +4580,8 @@
     <col min="1" max="1" width="10.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
     <col min="3" max="20" width="4.85546875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" style="3" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -4618,160 +4624,160 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="56"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="68"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53" t="s">
+      <c r="R7" s="62"/>
+      <c r="S7" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="66" t="s">
+      <c r="T7" s="62"/>
+      <c r="U7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="66" t="s">
+      <c r="V7" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
@@ -4826,8 +4832,8 @@
       <c r="T8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -4873,7 +4879,7 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12">
-        <f t="shared" ref="U9:U15" si="0">D9+F9+H9+J9+L9+N9+P9+R9+T9</f>
+        <f t="shared" ref="U9:V34" si="0">D9+F9+H9+J9+L9+N9+P9+R9+T9</f>
         <v>0</v>
       </c>
       <c r="V9" s="12">
@@ -4915,8 +4921,8 @@
         <v>2</v>
       </c>
       <c r="V10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -4953,8 +4959,8 @@
         <v>36</v>
       </c>
       <c r="V11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -4989,8 +4995,8 @@
         <v>1</v>
       </c>
       <c r="V12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -5025,8 +5031,8 @@
         <v>2</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -5065,8 +5071,8 @@
         <v>5</v>
       </c>
       <c r="V14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -5103,8 +5109,8 @@
         <v>2</v>
       </c>
       <c r="V15" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -5134,8 +5140,14 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
+      <c r="U16" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -5165,12 +5177,12 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15">
-        <f>D17+F17+H17+J17+L17+N17+P17+R17+T17</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="V17" s="15">
-        <f>C17+E17+G17+I17+K17+M17+O17+Q17+S17</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -5203,12 +5215,12 @@
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15">
-        <f>D18+F18+H18+J18+L18+N18+P18+R18+T18</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="V18" s="15">
-        <f>C18+E18+G18+I18+K18+M18+O18+Q18+S18</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -5239,11 +5251,11 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15">
-        <f>D19+F19+H19+J19+L19+N19+P19+R19+T19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V19" s="15">
-        <f>C19+E19+G19+I19+K19+M19+O19+Q19+S19</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -5277,12 +5289,12 @@
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15">
-        <f>D20+F20+H20+J20+L20+N20+P20+R20+T20</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="V20" s="15">
-        <f>C20+E20+G20+I20+K20+M20+O20+Q20+S20</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -5315,12 +5327,12 @@
         <v>3</v>
       </c>
       <c r="U21" s="15">
-        <f>D21+F21+H21+J21+L21+N21+P21+R21+T21</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="V21" s="15">
-        <f>C21+E21+G21+I21+K21+M21+O21+Q21+S21</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -5350,8 +5362,14 @@
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
+      <c r="U22" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
@@ -5382,8 +5400,14 @@
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
+      <c r="U23" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -5415,12 +5439,12 @@
         <v>2</v>
       </c>
       <c r="U24" s="15">
-        <f>D24+F24+H24+J24+L24+N24+P24+R24+T24</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="V24" s="15">
-        <f>C24+E24+G24+I24+K24+M24+O24+Q24+S24</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -5458,8 +5482,14 @@
       <c r="T25" s="15">
         <v>1</v>
       </c>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
+      <c r="U25" s="15">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="V25" s="15">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -5490,8 +5520,14 @@
       <c r="T26" s="15">
         <v>1</v>
       </c>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
+      <c r="U26" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V26" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -5522,8 +5558,14 @@
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
+      <c r="U27" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V27" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -5556,8 +5598,14 @@
       <c r="T28" s="15">
         <v>2</v>
       </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
+      <c r="U28" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V28" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -5586,8 +5634,14 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
+      <c r="U29" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
@@ -5616,8 +5670,14 @@
       <c r="T30" s="15">
         <v>1</v>
       </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
+      <c r="U30" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -5647,12 +5707,12 @@
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="15">
-        <f>D31+F31+H31+J31+L31+N31+P31+R31+T31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V31" s="15">
-        <f>C31+E31+G31+I31+K31+M31+O31+Q31+S31</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -5684,8 +5744,14 @@
       <c r="T32" s="28">
         <v>3</v>
       </c>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
+      <c r="U32" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V32" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
@@ -5714,98 +5780,110 @@
       <c r="T33" s="28">
         <v>1</v>
       </c>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
+      <c r="U33" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V33" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="25">
         <v>44103</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24">
         <f>5*6</f>
         <v>30</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28">
+      <c r="E34" s="24"/>
+      <c r="F34" s="24">
         <v>3</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28">
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24">
         <v>0.5</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28">
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24">
         <v>400</v>
       </c>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28">
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24">
         <v>3</v>
       </c>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
+      <c r="U34" s="24">
+        <f t="shared" si="0"/>
+        <v>436.5</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="0"/>
+        <v>436.5</v>
+      </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="61">
         <f>SUM(C9:C34)-SUM(D9:D34)</f>
         <v>528</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62">
+      <c r="D35" s="61"/>
+      <c r="E35" s="61">
         <f>SUM(E9:E34)-SUM(F9:F34)</f>
         <v>32</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62">
+      <c r="F35" s="61"/>
+      <c r="G35" s="61">
         <f>SUM(G9:G34)-SUM(H9:H34)</f>
         <v>13</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62">
+      <c r="H35" s="61"/>
+      <c r="I35" s="61">
         <f>SUM(I9:I34)-SUM(J9:J34)</f>
         <v>14</v>
       </c>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62">
+      <c r="J35" s="61"/>
+      <c r="K35" s="61">
         <f>SUM(K9:K34)-SUM(L9:L34)</f>
         <v>43</v>
       </c>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62">
+      <c r="L35" s="61"/>
+      <c r="M35" s="61">
         <f>SUM(M9:M34)-SUM(N9:N34)</f>
         <v>4300</v>
       </c>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62">
+      <c r="N35" s="61"/>
+      <c r="O35" s="61">
         <f>SUM(O9:O34)-SUM(P9:P34)</f>
         <v>3200</v>
       </c>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62">
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61">
         <f>SUM(Q9:Q34)-SUM(R9:R34)</f>
         <v>78</v>
       </c>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62">
+      <c r="R35" s="61"/>
+      <c r="S35" s="61">
         <f>SUM(S9:S34)-SUM(T9:T34)</f>
         <v>65</v>
       </c>
-      <c r="T35" s="62"/>
+      <c r="T35" s="61"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
     </row>
@@ -5814,158 +5892,144 @@
       <c r="B36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="56">
         <f>C35/6</f>
         <v>88</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56">
         <f>K35/16</f>
         <v>2.6875</v>
       </c>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59">
+      <c r="L36" s="56"/>
+      <c r="M36" s="56">
         <f>M35/150</f>
         <v>28.666666666666668</v>
       </c>
-      <c r="N36" s="59"/>
-      <c r="O36" s="70">
+      <c r="N36" s="56"/>
+      <c r="O36" s="57">
         <f>O35/200</f>
         <v>16</v>
       </c>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="59">
+      <c r="P36" s="58"/>
+      <c r="Q36" s="56">
         <f>Q35/50</f>
         <v>1.56</v>
       </c>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59">
+      <c r="R36" s="56"/>
+      <c r="S36" s="56">
         <f>S35/8</f>
         <v>8.125</v>
       </c>
-      <c r="T36" s="59"/>
-      <c r="U36" s="64">
+      <c r="T36" s="56"/>
+      <c r="U36" s="59">
         <f>SUM(C36:R36)</f>
         <v>136.91416666666669</v>
       </c>
-      <c r="V36" s="65"/>
+      <c r="V36" s="60"/>
     </row>
     <row r="37" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="75"/>
       <c r="U37" s="20">
         <f>SUM(U9:U34)</f>
-        <v>74.5</v>
+        <v>637</v>
       </c>
       <c r="V37" s="20">
         <f>SUM(V9:V34)</f>
+        <v>9547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="54">
+        <f>V37-U37</f>
         <v>8910</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="68">
-        <f>V37-U37</f>
-        <v>8835.5</v>
-      </c>
-      <c r="V38" s="69"/>
+      <c r="V38" s="55"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54">
-        <v>37</v>
-      </c>
-      <c r="T39" s="54"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C40" s="34"/>
+      <c r="C40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="A37:T37"/>
     <mergeCell ref="A38:T38"/>
@@ -5982,36 +6046,48 @@
     <mergeCell ref="S36:T36"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.38" right="0.33" top="0.37" bottom="0.43" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="12" style="22" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
     <col min="3" max="20" width="4.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6.140625" style="3" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -6036,7 +6112,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="6"/>
@@ -6054,160 +6130,160 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="56"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="68"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53" t="s">
+      <c r="R7" s="62"/>
+      <c r="S7" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="66" t="s">
+      <c r="T7" s="62"/>
+      <c r="U7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="66" t="s">
+      <c r="V7" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="31" t="s">
         <v>6</v>
       </c>
@@ -6262,8 +6338,8 @@
       <c r="T8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -6598,128 +6674,128 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="76">
         <f>SUM(C9:C16)-SUM(D9:D16)</f>
         <v>456</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78">
+      <c r="D17" s="76"/>
+      <c r="E17" s="76">
         <f>SUM(E9:E16)-SUM(F9:F16)</f>
         <v>25</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78">
+      <c r="F17" s="76"/>
+      <c r="G17" s="76">
         <f t="shared" ref="G17" si="2">SUM(G9:G16)-SUM(H9:H16)</f>
         <v>9</v>
       </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78">
+      <c r="H17" s="76"/>
+      <c r="I17" s="76">
         <f t="shared" ref="I17" si="3">SUM(I9:I16)-SUM(J9:J16)</f>
         <v>14</v>
       </c>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78">
+      <c r="J17" s="76"/>
+      <c r="K17" s="76">
         <f t="shared" ref="K17" si="4">SUM(K9:K16)-SUM(L9:L16)</f>
         <v>41</v>
       </c>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78">
+      <c r="L17" s="76"/>
+      <c r="M17" s="76">
         <f t="shared" ref="M17" si="5">SUM(M9:M16)-SUM(N9:N16)</f>
         <v>4270</v>
       </c>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78">
+      <c r="N17" s="76"/>
+      <c r="O17" s="76">
         <f t="shared" ref="O17" si="6">SUM(O9:O16)-SUM(P9:P16)</f>
         <v>3200</v>
       </c>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78">
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76">
         <f t="shared" ref="Q17" si="7">SUM(Q9:Q16)-SUM(R9:R16)</f>
         <v>65</v>
       </c>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78">
+      <c r="R17" s="76"/>
+      <c r="S17" s="76">
         <f t="shared" ref="S17" si="8">SUM(S9:S16)-SUM(T9:T16)</f>
         <v>50</v>
       </c>
-      <c r="T17" s="78"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="56">
         <f>C17/6</f>
         <v>76</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59">
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56">
         <f>K17/16</f>
         <v>2.5625</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59">
+      <c r="L18" s="56"/>
+      <c r="M18" s="56">
         <f>M17/150</f>
         <v>28.466666666666665</v>
       </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59">
+      <c r="N18" s="56"/>
+      <c r="O18" s="56">
         <f>O17/200</f>
         <v>16</v>
       </c>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59">
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56">
         <f>Q17/50</f>
         <v>1.3</v>
       </c>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59">
+      <c r="R18" s="56"/>
+      <c r="S18" s="56">
         <f>S17/8</f>
         <v>6.25</v>
       </c>
-      <c r="T18" s="59"/>
-      <c r="U18" s="75">
+      <c r="T18" s="56"/>
+      <c r="U18" s="77">
         <f>SUM(C18:R18)</f>
         <v>124.32916666666667</v>
       </c>
-      <c r="V18" s="76"/>
+      <c r="V18" s="78"/>
     </row>
     <row r="19" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
       <c r="U19" s="20">
         <f>SUM(U9:U16)</f>
         <v>143</v>
@@ -6730,876 +6806,42 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="78">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="76">
         <f>V19-U19</f>
         <v>8130</v>
       </c>
-      <c r="V20" s="78"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15">
-        <f>D31+F31+H31+J31+L31+N31+P31+R31+T31</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="15">
-        <f>C31+E31+G31+I31+K31+M31+O31+Q31+S31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24">
-        <f>D51+F51+H51+J51+L51+N51+P51+R51+T51</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="24">
-        <f>C51+E51+G51+I51+K51+M51+O51+Q51+S51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="62">
-        <f>SUM(C9:C51)-SUM(D9:D51)</f>
-        <v>988</v>
-      </c>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62">
-        <f>SUM(E9:E51)-SUM(F9:F51)</f>
-        <v>50</v>
-      </c>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62">
-        <f>SUM(G9:G51)-SUM(H9:H51)</f>
-        <v>18</v>
-      </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62">
-        <f>SUM(I9:I51)-SUM(J9:J51)</f>
-        <v>28</v>
-      </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62">
-        <f>SUM(K9:K51)-SUM(L9:L51)</f>
-        <v>84.5625</v>
-      </c>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62">
-        <f>SUM(M9:M51)-SUM(N9:N51)</f>
-        <v>8568.4666666666672</v>
-      </c>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62">
-        <f>SUM(O9:O51)-SUM(P9:P51)</f>
-        <v>6416</v>
-      </c>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62">
-        <f>SUM(Q9:Q51)-SUM(R9:R51)</f>
-        <v>131.30000000000001</v>
-      </c>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62">
-        <f>SUM(S9:S51)-SUM(T9:T51)</f>
-        <v>106.25</v>
-      </c>
-      <c r="T52" s="62"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="59">
-        <f>C52/6</f>
-        <v>164.66666666666666</v>
-      </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59">
-        <f>K52/16</f>
-        <v>5.28515625</v>
-      </c>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59">
-        <f>M52/150</f>
-        <v>57.123111111111115</v>
-      </c>
-      <c r="N53" s="59"/>
-      <c r="O53" s="70">
-        <f>O52/200</f>
-        <v>32.08</v>
-      </c>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="59">
-        <f>Q52/50</f>
-        <v>2.6260000000000003</v>
-      </c>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59">
-        <f>S52/8</f>
-        <v>13.28125</v>
-      </c>
-      <c r="T53" s="59"/>
-      <c r="U53" s="64">
-        <f>SUM(C53:R53)</f>
-        <v>261.78093402777773</v>
-      </c>
-      <c r="V53" s="65"/>
-    </row>
-    <row r="54" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="58"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="20">
-        <f>SUM(U9:U51)</f>
-        <v>8540.3291666666664</v>
-      </c>
-      <c r="V54" s="20">
-        <f>SUM(V9:V51)</f>
-        <v>16546</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="58"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="68">
-        <f>V54-U54</f>
-        <v>8005.6708333333336</v>
-      </c>
-      <c r="V55" s="69"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="34"/>
+      <c r="V20" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="A54:R54"/>
-    <mergeCell ref="A55:R55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+  <mergeCells count="39">
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="A19:T19"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="U20:V20"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
@@ -7616,15 +6858,26 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.35" right="0.26" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7633,19 +6886,21 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="21" style="45" customWidth="1"/>
-    <col min="3" max="12" width="4.28515625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="45" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="5" style="45" customWidth="1"/>
-    <col min="16" max="20" width="4.28515625" style="45" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="13.85546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="22" style="43" customWidth="1"/>
+    <col min="3" max="12" width="4.28515625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="43" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="43" customWidth="1"/>
+    <col min="15" max="15" width="5" style="43" customWidth="1"/>
+    <col min="16" max="20" width="4.28515625" style="43" customWidth="1"/>
+    <col min="21" max="21" width="6" style="43" customWidth="1"/>
+    <col min="22" max="22" width="7" style="43" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7661,15 +6916,15 @@
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="35"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="6"/>
@@ -7687,265 +6942,265 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="56"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="68"/>
     </row>
     <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53" t="s">
+      <c r="R7" s="62"/>
+      <c r="S7" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="66" t="s">
+      <c r="T7" s="62"/>
+      <c r="U7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="66" t="s">
+      <c r="V7" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="36" t="s">
+      <c r="G8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="36" t="s">
+      <c r="I8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="36" t="s">
+      <c r="K8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="36" t="s">
+      <c r="M8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="36" t="s">
+      <c r="O8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="36" t="s">
+      <c r="Q8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="36" t="s">
+      <c r="S8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+      <c r="A9" s="44">
         <v>44136</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="45">
         <v>456</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45">
         <v>25</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45">
         <v>9</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47">
+      <c r="H9" s="45"/>
+      <c r="I9" s="45">
         <v>14</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45">
         <v>41</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47">
+      <c r="L9" s="45"/>
+      <c r="M9" s="45">
         <v>4270</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47">
+      <c r="N9" s="45"/>
+      <c r="O9" s="45">
         <v>3200</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47">
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45">
         <v>65</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47">
+      <c r="R9" s="45"/>
+      <c r="S9" s="45">
         <v>50</v>
       </c>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47">
+      <c r="T9" s="45"/>
+      <c r="U9" s="45">
         <f>D9+F9+H9+J9+L9+N9+P9+R9+T9</f>
         <v>0</v>
       </c>
-      <c r="V9" s="47">
+      <c r="V9" s="45">
         <f>C9+E9+G9+I9+K9+M9+O9+Q9+S9</f>
         <v>8130</v>
       </c>
@@ -7979,11 +7234,11 @@
       <c r="T10" s="15">
         <v>1</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="46">
         <f t="shared" ref="U10:U19" si="0">D10+F10+H10+J10+L10+N10+P10+R10+T10</f>
         <v>2</v>
       </c>
-      <c r="V10" s="48">
+      <c r="V10" s="46">
         <f t="shared" ref="V10:V19" si="1">C10+E10+G10+I10+K10+M10+O10+Q10+S10</f>
         <v>0</v>
       </c>
@@ -8015,11 +7270,11 @@
       <c r="T11" s="15">
         <v>1</v>
       </c>
-      <c r="U11" s="48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V11" s="48">
+      <c r="U11" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8056,11 +7311,11 @@
       <c r="T12" s="15">
         <v>6</v>
       </c>
-      <c r="U12" s="48">
+      <c r="U12" s="46">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="V12" s="48">
+      <c r="V12" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8094,11 +7349,11 @@
       </c>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
-      <c r="U13" s="48">
+      <c r="U13" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="V13" s="48">
+      <c r="V13" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8130,11 +7385,11 @@
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
-      <c r="U14" s="48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V14" s="48">
+      <c r="U14" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8177,11 +7432,11 @@
       <c r="T15" s="15">
         <v>2</v>
       </c>
-      <c r="U15" s="48">
+      <c r="U15" s="46">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8215,11 +7470,11 @@
       <c r="T16" s="15">
         <v>1</v>
       </c>
-      <c r="U16" s="48">
+      <c r="U16" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="V16" s="48">
+      <c r="V16" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8257,11 +7512,11 @@
       <c r="T17" s="15">
         <v>1</v>
       </c>
-      <c r="U17" s="48">
+      <c r="U17" s="46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="V17" s="48">
+      <c r="V17" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8297,11 +7552,11 @@
         <v>1</v>
       </c>
       <c r="T18" s="15"/>
-      <c r="U18" s="48">
+      <c r="U18" s="46">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="V18" s="48">
+      <c r="V18" s="46">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8337,138 +7592,138 @@
       <c r="T19" s="24">
         <v>1</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="V19" s="49">
+      <c r="V19" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="76">
         <f>SUM(C9:C19)-SUM(D9:D19)</f>
         <v>390</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78">
+      <c r="D20" s="76"/>
+      <c r="E20" s="76">
         <f>SUM(E9:E19)-SUM(F9:F19)</f>
         <v>19</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78">
+      <c r="F20" s="76"/>
+      <c r="G20" s="76">
         <f>SUM(G9:G19)-SUM(H9:H19)</f>
         <v>8</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78">
+      <c r="H20" s="76"/>
+      <c r="I20" s="76">
         <f t="shared" ref="I20" si="2">SUM(I9:I19)-SUM(J9:J19)</f>
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78">
+      <c r="J20" s="76"/>
+      <c r="K20" s="76">
         <f t="shared" ref="K20" si="3">SUM(K9:K19)-SUM(L9:L19)</f>
         <v>40</v>
       </c>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78">
+      <c r="L20" s="76"/>
+      <c r="M20" s="76">
         <f t="shared" ref="M20" si="4">SUM(M9:M19)-SUM(N9:N19)</f>
         <v>4270</v>
       </c>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78">
+      <c r="N20" s="76"/>
+      <c r="O20" s="76">
         <f t="shared" ref="O20" si="5">SUM(O9:O19)-SUM(P9:P19)</f>
         <v>2700</v>
       </c>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78">
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76">
         <f t="shared" ref="Q20" si="6">SUM(Q9:Q19)-SUM(R9:R19)</f>
         <v>51</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78">
+      <c r="R20" s="76"/>
+      <c r="S20" s="76">
         <f t="shared" ref="S20" si="7">SUM(S9:S19)-SUM(T9:T19)</f>
         <v>38</v>
       </c>
-      <c r="T20" s="78"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
     </row>
     <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="56">
         <f>C20/6</f>
         <v>65</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59">
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56">
         <f>K20/16</f>
         <v>2.5</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59">
+      <c r="L21" s="56"/>
+      <c r="M21" s="56">
         <f>M20/150</f>
         <v>28.466666666666665</v>
       </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59">
+      <c r="N21" s="56"/>
+      <c r="O21" s="56">
         <f>O20/200</f>
         <v>13.5</v>
       </c>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59">
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56">
         <f>Q20/50</f>
         <v>1.02</v>
       </c>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59">
+      <c r="R21" s="56"/>
+      <c r="S21" s="56">
         <f>S20/8</f>
         <v>4.75</v>
       </c>
-      <c r="T21" s="59"/>
-      <c r="U21" s="75">
+      <c r="T21" s="56"/>
+      <c r="U21" s="77">
         <f>SUM(C21:T21)</f>
         <v>115.23666666666666</v>
       </c>
-      <c r="V21" s="76"/>
+      <c r="V21" s="78"/>
     </row>
     <row r="22" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
       <c r="U22" s="20">
         <f>SUM(U9:U19)</f>
         <v>602</v>
@@ -8479,61 +7734,36 @@
       </c>
     </row>
     <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="78">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="76">
         <f>V22-U22</f>
         <v>7530</v>
       </c>
-      <c r="V23" s="78"/>
+      <c r="V23" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
     <mergeCell ref="U21:V21"/>
     <mergeCell ref="A22:T22"/>
     <mergeCell ref="A23:T23"/>
@@ -8548,26 +7778,61 @@
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="S21:T21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="S7:T7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.38" right="0.39" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="45" customWidth="1"/>
-    <col min="3" max="22" width="5" style="45" customWidth="1"/>
-    <col min="23" max="24" width="9.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="11.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="43" customWidth="1"/>
+    <col min="3" max="6" width="5" style="43" customWidth="1"/>
+    <col min="7" max="7" width="4" style="43" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="4" style="43" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="43" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="43" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="43" customWidth="1"/>
+    <col min="13" max="20" width="5" style="43" customWidth="1"/>
+    <col min="21" max="22" width="4.140625" style="43" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" style="43" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" style="43" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8583,17 +7848,17 @@
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="6"/>
@@ -8613,1231 +7878,1151 @@
       <c r="T2" s="8"/>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="56"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="68"/>
     </row>
     <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53" t="s">
+      <c r="R7" s="62"/>
+      <c r="S7" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53" t="s">
+      <c r="T7" s="62"/>
+      <c r="U7" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="53"/>
-      <c r="W7" s="66" t="s">
+      <c r="V7" s="62"/>
+      <c r="W7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="X7" s="66" t="s">
+      <c r="X7" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="36" t="s">
+      <c r="G8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="36" t="s">
+      <c r="I8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="36" t="s">
+      <c r="K8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="36" t="s">
+      <c r="M8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="36" t="s">
+      <c r="O8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="36" t="s">
+      <c r="Q8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="36" t="s">
+      <c r="S8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="V8" s="36" t="s">
+      <c r="U8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+      <c r="A9" s="44">
         <v>44166</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="45">
         <v>390</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45">
         <v>19</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45">
         <v>8</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47">
+      <c r="H9" s="45"/>
+      <c r="I9" s="45">
         <v>14</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45">
         <v>40</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47">
+      <c r="L9" s="45"/>
+      <c r="M9" s="45">
         <v>4270</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47">
+      <c r="N9" s="45"/>
+      <c r="O9" s="45">
         <v>2700</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47">
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45">
         <v>51</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47">
+      <c r="R9" s="45"/>
+      <c r="S9" s="45">
         <v>38</v>
       </c>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47">
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45">
         <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9</f>
         <v>0</v>
       </c>
-      <c r="X9" s="47">
+      <c r="X9" s="45">
         <f>C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9</f>
         <v>7530</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
+      <c r="A10" s="48">
         <v>44166</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46">
         <v>100</v>
       </c>
-      <c r="V10" s="48"/>
-      <c r="W10" s="47">
-        <f t="shared" ref="W10:W24" si="0">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="47">
-        <f t="shared" ref="X10:X24" si="1">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46">
+        <f t="shared" ref="W10:W25" si="0">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="46">
+        <f t="shared" ref="X10:X25" si="1">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="48">
         <v>44167</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46">
         <v>12</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46">
         <v>2</v>
       </c>
-      <c r="W11" s="47">
+      <c r="W11" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="X11" s="47">
+      <c r="X11" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
+      <c r="A12" s="48">
         <v>44167</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48">
-        <v>1</v>
-      </c>
-      <c r="W12" s="47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="47">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46">
+        <v>1</v>
+      </c>
+      <c r="W12" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="48">
         <v>44170</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48">
-        <v>1</v>
-      </c>
-      <c r="W13" s="47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="47">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46">
+        <v>1</v>
+      </c>
+      <c r="W13" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="48">
         <v>44172</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48">
-        <v>6</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46">
+        <v>6</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X14" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="50">
+      <c r="A15" s="48">
         <v>44175</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48">
-        <v>1</v>
-      </c>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46">
+        <v>1</v>
+      </c>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
+      <c r="A16" s="48">
         <v>44175</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48">
-        <v>1</v>
-      </c>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46">
+        <v>1</v>
+      </c>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="48">
         <v>44180</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46">
         <v>36</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48">
+      <c r="E17" s="46"/>
+      <c r="F17" s="46">
         <v>2</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48">
-        <v>1</v>
-      </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48">
-        <v>1</v>
-      </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46">
+        <v>1</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46">
+        <v>1</v>
+      </c>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46">
         <v>50</v>
       </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48">
+      <c r="O17" s="46"/>
+      <c r="P17" s="46">
         <v>300</v>
       </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48">
-        <v>1</v>
-      </c>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48">
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46">
+        <v>1</v>
+      </c>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46">
         <v>2</v>
       </c>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48">
-        <v>1</v>
-      </c>
-      <c r="W17" s="47">
+      <c r="U17" s="46"/>
+      <c r="V17" s="46">
+        <v>1</v>
+      </c>
+      <c r="W17" s="46">
         <f t="shared" si="0"/>
         <v>394</v>
       </c>
-      <c r="X17" s="47">
+      <c r="X17" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="48">
         <v>37605</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46">
         <v>18</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="47">
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X18" s="47">
+      <c r="X18" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A19" s="48">
         <v>44194</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46">
         <f>20*6</f>
         <v>120</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48">
-        <v>1</v>
-      </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46">
+        <v>1</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46">
         <v>50</v>
       </c>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46">
         <v>20</v>
       </c>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48">
+      <c r="S19" s="46"/>
+      <c r="T19" s="46">
         <v>20</v>
       </c>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48">
+      <c r="U19" s="46"/>
+      <c r="V19" s="46">
         <v>20</v>
       </c>
-      <c r="W24" s="47">
+      <c r="W19" s="46">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="X24" s="47">
+      <c r="X19" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="48">
+        <v>44185</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46">
+        <v>1</v>
+      </c>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46">
+        <v>1</v>
+      </c>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>44185</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46">
+        <v>18</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46">
+        <v>2</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46">
+        <v>1</v>
+      </c>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46">
+        <v>30</v>
+      </c>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46">
+        <v>1</v>
+      </c>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46">
+        <v>1</v>
+      </c>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46">
+        <v>1</v>
+      </c>
+      <c r="W21" s="46">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="X21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>44186</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46">
+        <v>1</v>
+      </c>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>44186</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46">
+        <v>1</v>
+      </c>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X23" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <v>44191</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46">
+        <v>2</v>
+      </c>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
-        <v>44185</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51">
-        <v>1</v>
-      </c>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51">
-        <v>1</v>
-      </c>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
-        <v>44185</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49">
-        <v>18</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49">
+      <c r="A25" s="83">
+        <v>44191</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47">
+        <v>1</v>
+      </c>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X25" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="76">
+        <f>SUM(C9:C25)-SUM(D9:D25)</f>
+        <v>180</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76">
+        <f>SUM(E9:E25)-SUM(F9:F25)</f>
+        <v>15</v>
+      </c>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76">
+        <f>SUM(G9:G25)-SUM(H9:H25)</f>
+        <v>8</v>
+      </c>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76">
+        <f>SUM(I9:I25)-SUM(J9:J25)</f>
+        <v>12</v>
+      </c>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76">
+        <f>SUM(K9:K25)-SUM(L9:L25)</f>
+        <v>38</v>
+      </c>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76">
+        <f>SUM(M9:M25)-SUM(N9:N25)</f>
+        <v>4140</v>
+      </c>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76">
+        <f>SUM(O9:O25)-SUM(P9:P25)</f>
+        <v>2300</v>
+      </c>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76">
+        <f>SUM(Q9:Q25)-SUM(R9:R25)</f>
+        <v>31</v>
+      </c>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76">
+        <f>SUM(S9:S25)-SUM(T9:T25)</f>
+        <v>16</v>
+      </c>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76">
+        <f>SUM(U9:U25)-SUM(V9:V25)</f>
+        <v>74</v>
+      </c>
+      <c r="V26" s="76"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+    </row>
+    <row r="27" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="56">
+        <f>C26/6</f>
+        <v>30</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56">
+        <f>K26/16</f>
+        <v>2.375</v>
+      </c>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56">
+        <f>M26/150</f>
+        <v>27.6</v>
+      </c>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56">
+        <f>O26/200</f>
+        <v>11.5</v>
+      </c>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56">
+        <f>Q26/50</f>
+        <v>0.62</v>
+      </c>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56">
+        <f>S26/8</f>
         <v>2</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49">
-        <v>1</v>
-      </c>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49">
-        <v>30</v>
-      </c>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49">
-        <v>1</v>
-      </c>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49">
-        <v>1</v>
-      </c>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49">
-        <v>1</v>
-      </c>
-      <c r="W26" s="47">
-        <f t="shared" ref="W26" si="2">D26+F26+H26+J26+L26+N26+P26+R26+T26+V26</f>
-        <v>154</v>
-      </c>
-      <c r="X26" s="47">
-        <f t="shared" ref="X26" si="3">C26+E26+G26+I26+K26+M26+O26+Q26+S26+U26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
-        <v>44186</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51">
-        <v>1</v>
-      </c>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
-        <v>44186</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51">
-        <v>1</v>
-      </c>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="50">
-        <v>44191</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51">
-        <v>2</v>
-      </c>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
-        <v>44191</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49">
-        <v>1</v>
-      </c>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-    </row>
-    <row r="31" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="78">
-        <f>SUM(C9:C30)-SUM(D9:D30)</f>
-        <v>180</v>
-      </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78">
-        <f>SUM(E9:E30)-SUM(F9:F30)</f>
-        <v>15</v>
-      </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78">
-        <f>SUM(G9:G30)-SUM(H9:H30)</f>
-        <v>8</v>
-      </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78">
-        <f>SUM(I9:I30)-SUM(J9:J30)</f>
-        <v>12</v>
-      </c>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78">
-        <f>SUM(K9:K30)-SUM(L9:L30)</f>
-        <v>38</v>
-      </c>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78">
-        <f>SUM(M9:M30)-SUM(N9:N30)</f>
-        <v>4140</v>
-      </c>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78">
-        <f>SUM(O9:O30)-SUM(P9:P30)</f>
-        <v>2300</v>
-      </c>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78">
-        <f>SUM(Q9:Q30)-SUM(R9:R30)</f>
-        <v>31</v>
-      </c>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78">
-        <f>SUM(S9:S30)-SUM(T9:T30)</f>
-        <v>16</v>
-      </c>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78">
-        <f>SUM(U9:U30)-SUM(V9:V30)</f>
-        <v>74</v>
-      </c>
-      <c r="V31" s="78"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-    </row>
-    <row r="32" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="59">
-        <f>C31/6</f>
-        <v>30</v>
-      </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59">
-        <f>K31/16</f>
-        <v>2.375</v>
-      </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59">
-        <f>M31/150</f>
-        <v>27.6</v>
-      </c>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59">
-        <f>O31/200</f>
-        <v>11.5</v>
-      </c>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59">
-        <f>Q31/50</f>
-        <v>0.62</v>
-      </c>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59">
-        <f>S31/8</f>
-        <v>2</v>
-      </c>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59">
-        <f>U31/12</f>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56">
+        <f>U26/12</f>
         <v>6.166666666666667</v>
       </c>
-      <c r="V32" s="59"/>
-      <c r="W32" s="75">
-        <f>SUM(C32:T32)</f>
+      <c r="V27" s="56"/>
+      <c r="W27" s="77">
+        <f>SUM(C27:T27)</f>
         <v>74.094999999999999</v>
       </c>
-      <c r="X32" s="76"/>
-    </row>
-    <row r="33" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="X27" s="78"/>
+    </row>
+    <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="20">
-        <f>SUM(W9:W30)</f>
-        <v>813</v>
-      </c>
-      <c r="X33" s="20">
-        <f>SUM(X9:X30)</f>
-        <v>7630</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="20">
+        <f>SUM(W9:W25)</f>
+        <v>822</v>
+      </c>
+      <c r="X28" s="20">
+        <f>SUM(X9:X25)</f>
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="78">
-        <f>X33-W33</f>
-        <v>6817</v>
-      </c>
-      <c r="X34" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="76">
+        <f>X28-W28</f>
+        <v>6814</v>
+      </c>
+      <c r="X29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="A28:V28"/>
+    <mergeCell ref="A29:V29"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="A3:X3"/>
     <mergeCell ref="A4:X4"/>
@@ -9848,60 +9033,47 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="A33:V33"/>
-    <mergeCell ref="A34:V34"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.28999999999999998" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27:N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="22" width="5" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="84" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="43" customWidth="1"/>
+    <col min="3" max="4" width="3.5703125" style="43" customWidth="1"/>
+    <col min="5" max="6" width="4" style="43" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="4" style="43" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="43" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="5" style="43" customWidth="1"/>
+    <col min="14" max="14" width="4" style="43" customWidth="1"/>
+    <col min="15" max="15" width="5" style="43" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" style="43" customWidth="1"/>
+    <col min="17" max="20" width="5" style="43" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="43" customWidth="1"/>
+    <col min="22" max="23" width="3.85546875" style="43" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" style="43" customWidth="1"/>
+    <col min="25" max="25" width="6.42578125" style="43" customWidth="1"/>
+    <col min="26" max="26" width="7.140625" style="43" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
@@ -9913,16 +9085,18 @@
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+    </row>
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="27"/>
@@ -9941,704 +9115,1090 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-    </row>
-    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-    </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+    </row>
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+    </row>
+    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="56"/>
-    </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="68"/>
+    </row>
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53" t="s">
+      <c r="R7" s="62"/>
+      <c r="S7" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53" t="s">
+      <c r="T7" s="62"/>
+      <c r="U7" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="V7" s="68"/>
+      <c r="W7" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="53"/>
-      <c r="W7" s="66" t="s">
+      <c r="X7" s="62"/>
+      <c r="Y7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="X7" s="66" t="s">
+      <c r="Z7" s="63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="36" t="s">
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="36" t="s">
+      <c r="G8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="36" t="s">
+      <c r="I8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="36" t="s">
+      <c r="K8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="36" t="s">
+      <c r="M8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="36" t="s">
+      <c r="O8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="36" t="s">
+      <c r="Q8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="36" t="s">
+      <c r="S8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="V8" s="36" t="s">
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f>T12_20!C31</f>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45">
+        <f>T12_20!C26</f>
         <v>180</v>
       </c>
-      <c r="E9">
-        <f>T12_20!E31</f>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45">
+        <f>T12_20!E26</f>
         <v>15</v>
       </c>
-      <c r="G9">
-        <f>T12_20!G31</f>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45">
+        <f>T12_20!G26</f>
         <v>8</v>
       </c>
-      <c r="I9">
-        <f>T12_20!I31</f>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45">
+        <f>T12_20!I26</f>
         <v>12</v>
       </c>
-      <c r="K9">
-        <f>T12_20!K31</f>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45">
+        <f>T12_20!K26</f>
         <v>38</v>
       </c>
-      <c r="M9">
-        <f>T12_20!M31</f>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45">
+        <f>T12_20!M26</f>
         <v>4140</v>
       </c>
-      <c r="O9">
-        <f>T12_20!O31</f>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45">
+        <f>T12_20!O26</f>
         <v>2300</v>
       </c>
-      <c r="Q9">
-        <f>T12_20!Q31</f>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45">
+        <f>T12_20!Q26</f>
         <v>31</v>
       </c>
-      <c r="S9">
-        <f>T12_20!S31</f>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45">
+        <f>T12_20!S26</f>
         <v>16</v>
       </c>
-      <c r="U9">
-        <f>T12_20!U31</f>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45">
+        <f>T12_20!U26</f>
         <v>74</v>
       </c>
-      <c r="W9" s="47">
-        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="47">
-        <f>C9+E9+G9+I9+K9+M9+O9+Q9+S9+U9</f>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45">
+        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+X9</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="45">
+        <f>C9+E9+G9+I9+K9+M9+O9+Q9+S9+W9</f>
         <v>6814</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
         <v>44199</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="V10">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46">
+        <v>6</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46">
         <v>2</v>
       </c>
-      <c r="W10" s="47">
-        <f t="shared" ref="W10:W25" si="0">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10</f>
+      <c r="Y10" s="45">
+        <f t="shared" ref="Y10:Y22" si="0">D10+F10+H10+J10+L10+N10+P10+R10+T10+X10</f>
         <v>8</v>
       </c>
-      <c r="X10" s="47">
-        <f t="shared" ref="X10:X25" si="1">C10+E10+G10+I10+K10+M10+O10+Q10+S10+U10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="Z10" s="45">
+        <f t="shared" ref="Z10:Z22" si="1">C10+E10+G10+I10+K10+M10+O10+Q10+S10+W10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
         <v>44200</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46">
         <f>24*6</f>
         <v>144</v>
       </c>
-      <c r="P11">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46">
         <v>200</v>
       </c>
-      <c r="R11">
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46">
         <v>5</v>
       </c>
-      <c r="T11">
+      <c r="S11" s="46"/>
+      <c r="T11" s="46">
         <v>5</v>
       </c>
-      <c r="W11" s="47">
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="45">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="X11" s="47">
+      <c r="Z11" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
         <v>44204</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46">
+        <v>1</v>
+      </c>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46">
+        <v>1</v>
+      </c>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z12" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
         <v>44206</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="Q13">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46">
         <v>2</v>
       </c>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="48">
         <v>44206</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46">
         <v>12</v>
       </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="E14" s="46"/>
+      <c r="F14" s="46">
+        <v>6</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46">
+        <v>1</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46">
+        <v>10</v>
+      </c>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46">
         <v>200</v>
       </c>
-      <c r="R14">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46">
         <v>2</v>
       </c>
-      <c r="T14">
+      <c r="S14" s="46"/>
+      <c r="T14" s="46">
         <v>2</v>
       </c>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="45">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="Z14" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
         <v>44214</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D15">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46">
         <v>18</v>
       </c>
-      <c r="W15" s="47">
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="45">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X15" s="47">
+      <c r="Z15" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="48">
         <v>44215</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="V16">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46">
         <v>50</v>
       </c>
-      <c r="W16" s="47">
+      <c r="Y16" s="45">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="X16" s="47">
+      <c r="Z16" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W17" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="47">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="48">
+        <v>43850</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46">
+        <v>300</v>
+      </c>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W18" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="47">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="48">
+        <v>43850</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46">
+        <v>50</v>
+      </c>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W19" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="47">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>43850</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46">
+        <v>30</v>
+      </c>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46">
+        <v>22</v>
+      </c>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="45">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Z19" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W20" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="47">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="48">
+        <v>44190</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46">
+        <v>50</v>
+      </c>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46">
+        <v>96</v>
+      </c>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="45">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Z20" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W21" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="47">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>44190</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46">
+        <v>96</v>
+      </c>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W22" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="47">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>44190</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46">
+        <v>36</v>
+      </c>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W23" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W24" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W25" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44" t="s">
+    <row r="23" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="78">
-        <f>SUM(C9:C25)-SUM(D9:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78">
-        <f t="shared" ref="E26" si="2">SUM(E9:E25)-SUM(F9:F25)</f>
+      <c r="C23" s="76">
+        <f>SUM(C9:C22)-SUM(D9:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76">
+        <f>SUM(E9:E22)-SUM(F9:F22)</f>
         <v>9</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78">
-        <f t="shared" ref="G26" si="3">SUM(G9:G25)-SUM(H9:H25)</f>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76">
+        <f>SUM(G9:G22)-SUM(H9:H22)</f>
         <v>8</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78">
-        <f t="shared" ref="I26" si="4">SUM(I9:I25)-SUM(J9:J25)</f>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76">
+        <f>SUM(I9:I22)-SUM(J9:J22)</f>
         <v>11</v>
       </c>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78">
-        <f t="shared" ref="K26" si="5">SUM(K9:K25)-SUM(L9:L25)</f>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76">
+        <f>SUM(K9:K22)-SUM(L9:L22)</f>
         <v>38</v>
       </c>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78">
-        <f t="shared" ref="M26" si="6">SUM(M9:M25)-SUM(N9:N25)</f>
-        <v>4140</v>
-      </c>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78">
-        <f t="shared" ref="O26" si="7">SUM(O9:O25)-SUM(P9:P25)</f>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76">
+        <f>SUM(M9:M22)-SUM(N9:N22)</f>
+        <v>4050</v>
+      </c>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76">
+        <f>SUM(O9:O22)-SUM(P9:P22)</f>
         <v>1900</v>
       </c>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78">
-        <f t="shared" ref="Q26" si="8">SUM(Q9:Q25)-SUM(R9:R25)</f>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76">
+        <f>SUM(Q9:Q22)-SUM(R9:R22)</f>
         <v>25</v>
       </c>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78">
-        <f t="shared" ref="S26" si="9">SUM(S9:S25)-SUM(T9:T25)</f>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76">
+        <f>SUM(S9:S22)-SUM(T9:T22)</f>
         <v>8</v>
       </c>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78">
-        <f>SUM(U9:U25)-SUM(V9:V25)</f>
-        <v>22</v>
-      </c>
-      <c r="V26" s="78"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-    </row>
-    <row r="27" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44" t="s">
+      <c r="T23" s="76"/>
+      <c r="U23" s="76">
+        <f>SUM(U9:U22)-SUM(V9:V22)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76">
+        <f>SUM(W9:W22)-SUM(X9:X22)</f>
+        <v>20</v>
+      </c>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="59">
-        <f>C26/6</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59">
-        <f>K26/16</f>
+      <c r="C24" s="56">
+        <f>C23/6</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56">
+        <f>K23/16</f>
         <v>2.375</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59">
-        <f>M26/150</f>
-        <v>27.6</v>
-      </c>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59">
-        <f>O26/100</f>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56">
+        <f>M23/150</f>
+        <v>27</v>
+      </c>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56">
+        <f>O23/100</f>
         <v>19</v>
       </c>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59">
-        <f>Q26/50</f>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56">
+        <f>Q23/50</f>
         <v>0.5</v>
       </c>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59">
-        <f>S26/8</f>
-        <v>1</v>
-      </c>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59">
-        <f>U26/12</f>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="V27" s="59"/>
-      <c r="W27" s="75">
-        <f>SUM(C27:T27)</f>
-        <v>50.475000000000001</v>
-      </c>
-      <c r="X27" s="76"/>
-    </row>
-    <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
+      <c r="R24" s="56"/>
+      <c r="S24" s="56">
+        <f>S23/8</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56">
+        <f>U23/24</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56">
+        <f>W23/12</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="77">
+        <f>SUM(C24:T24)</f>
+        <v>49.875</v>
+      </c>
+      <c r="Z24" s="78"/>
+    </row>
+    <row r="25" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="20">
-        <f>SUM(W9:W25)</f>
-        <v>430</v>
-      </c>
-      <c r="X28" s="20">
-        <f>SUM(X9:X25)</f>
-        <v>6814</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="20">
+        <f>SUM(Y9:Y22)</f>
+        <v>747</v>
+      </c>
+      <c r="Z25" s="20">
+        <f>SUM(Z9:Z22)</f>
+        <v>6816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="78">
-        <f>X28-W28</f>
-        <v>6384</v>
-      </c>
-      <c r="X29" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="76">
+        <f>Z25-Y25</f>
+        <v>6069</v>
+      </c>
+      <c r="Z26" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A3:X3"/>
-    <mergeCell ref="A4:X4"/>
+  <mergeCells count="45">
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="A26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="A3:Z3"/>
+    <mergeCell ref="A4:Z4"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="C6:X6"/>
+    <mergeCell ref="C6:Z6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
@@ -10650,35 +10210,9 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="A29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="A28:V28"/>
+    <mergeCell ref="W7:X7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.2" right="0.26" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>